--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,35 +496,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Actor_LLM_Events_example_evidence_Sent_Sleep</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Actor_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -586,35 +591,40 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>['family member']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>['Family', 'Sleep']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>['patient', 'family member']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>['daughters initially present-updated.', '1 daughter sleeping in waiting room']</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>['e1=Family|1:daughters initially present-updated.', 'e2=Sleep|1:1 daughter sleeping in waiting room']</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -677,30 +687,35 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>["neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>["e1=Unknown|1:neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -763,30 +778,35 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>['id: tmax 99 last eve, afebrile overnight']</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:id: tmax 99 last eve, afebrile overnight']</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -849,30 +869,35 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>['keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -935,30 +960,35 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>['neuro: a&amp;ox3']</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1021,30 +1051,35 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>["patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>["e1=Unknown|1:patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1107,30 +1142,35 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['others']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>['cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1193,30 +1233,35 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>['Pain']</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': '8 (initially), 1-2 (currently)', 'location': 'head', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>['neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>['e1=Pain|1:neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1279,30 +1324,35 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>['patient awake', 'patient pupils equal and reactive to light', 'patient does follow commands']</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient awake', 'e2=Unknown|1:patient pupils equal and reactive to light', 'e3=Unknown|1:patient does follow commands']</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1365,30 +1415,35 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>['Eating']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'ativan', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>['continues on by mouth ativan atc for dt prohylaxis']</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>['e1=Eating|1:continues on by mouth ativan atc for dt prohylaxis']</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1451,30 +1506,35 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>['Family', 'Family']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>['family member', 'family member']</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'cousin'}}}, {'Family': {'Family': {'interaction': 'stay', 'relation': 'cousin'}}}]</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>["patient's family in visiting late and cousin stayed overnight", "patient's family in visiting late and cousin stayed overnight"]</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>["e1=Family|1:patient's family in visiting late and cousin stayed overnight", "e2=Family|1:patient's family in visiting late and cousin stayed overnight"]</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1537,30 +1597,35 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>['neuro: a/o x3, oob, steady on feet']</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:neuro: a/o x3, oob, steady on feet']</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1648,6 +1713,11 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>['[]']</t>
         </is>
       </c>
@@ -1709,30 +1779,35 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Pain']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'continued'}}}]</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>['more awake', 'weaned from vent', 'refractory hypertension and continued fevers and high wbc']</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:more awake', 'e2=Unknown|1:weaned from vent', 'e3=Pain|1:refractory hypertension and continued fevers and high wbc']</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1795,30 +1870,35 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>['neuro: a&amp;ox3']</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1881,30 +1961,35 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>['ativan .5mg as needed through out the day']</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:ativan .5mg as needed through out the day']</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1967,30 +2052,35 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>['neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2053,30 +2143,35 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>['Unknown', 'Pain', 'Unknown']</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>['patient', 'patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>['ci 2.49-2.87 with mvo2 of 67%', 'patient a little more hypertensive overnight', 'restarted on nitro up to 2mcg with fair blood pressure control']</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:ci 2.49-2.87 with mvo2 of 67%', 'e2=Pain|0:patient a little more hypertensive overnight', 'e3=Unknown|1:restarted on nitro up to 2mcg with fair blood pressure control']</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2139,30 +2234,35 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['patient', 'patient']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>['neuro checks every 2hr', '?speech &amp; swallow [**doctor first name **]']</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:neuro checks every 2hr', 'e2=Unknown|1:?speech &amp; swallow [**doctor first name **]']</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2225,30 +2325,35 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['others']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>['2-3 min this am, 2mg ativan given']</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:2-3 min this am, 2mg ativan given']</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2311,30 +2416,35 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>['patient more awake today, following commands, left weaker than right']</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:patient more awake today, following commands, left weaker than right']</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2397,30 +2507,35 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>['rcca stent']</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:rcca stent']</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2483,30 +2598,35 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>['Pain', 'Eating']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>['others', '']</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {}}]</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>['gave 2mg mso4, with little effect', '']</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>['e1=Pain|1:gave 2mg mso4, with little effect', 'e2=Eating|1:']</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2569,30 +2689,35 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>['intubated for agitation and airway protection']</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:intubated for agitation and airway protection']</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2655,30 +2780,35 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>['cath sites soft and intact']</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:cath sites soft and intact']</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2741,30 +2871,35 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>['consented for cool-mi']</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:consented for cool-mi']</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2827,30 +2962,35 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>['had cxr']</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:had cxr']</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2913,30 +3053,35 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>['p: monitor rhymth']</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:p: monitor rhymth']</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2999,30 +3144,35 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>['[**last name (namepattern4) **] score varying between [**2-16**]']</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:[**last name (namepattern4) **] score varying between [**2-16**]']</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3085,30 +3235,35 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>['ls decreased rll, clear upper bilat with faint rales lll']</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:ls decreased rll, clear upper bilat with faint rales lll']</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3196,6 +3351,11 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -3257,30 +3417,35 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>['map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3343,30 +3508,35 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>['tol sm amts clears']</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:tol sm amts clears']</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3429,30 +3599,35 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>['Eating']</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'amio', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>['on amio by mouth']</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>['e1=Eating|1:on amio by mouth']</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3540,6 +3715,11 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -3601,30 +3781,35 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>['pneumonia- unable to access cxr report']</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:pneumonia- unable to access cxr report']</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3712,6 +3897,11 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -3773,30 +3963,35 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>['milrinone at .375mcgs']</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:milrinone at .375mcgs']</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Actor_LLM_Events_example_evidence_Sent</t>
+          <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Attribute_LLM_Events_example_evidence_Sent</t>
+          <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
+          <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Event_Id_LLM_Events_example_evidence_Sent</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -606,25 +601,20 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>['patient', 'family member']</t>
+          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['daughters initially present-updated.', '1 daughter sleeping in waiting room']</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>['daughters initially present-updated.', '1 daughter sleeping in waiting room']</t>
+          <t>['e1=Family|1:daughters initially present-updated.', 'e2=Sleep|1:1 daughter sleeping in waiting room']</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
-        <is>
-          <t>['e1=Family|1:daughters initially present-updated.', 'e2=Sleep|1:1 daughter sleeping in waiting room']</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -697,25 +687,20 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>["neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>["neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
+          <t>["e1=Unknown|1:neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
-        <is>
-          <t>["e1=Unknown|1:neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -788,25 +773,20 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['id: tmax 99 last eve, afebrile overnight']</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>['id: tmax 99 last eve, afebrile overnight']</t>
+          <t>['e1=Unknown|1:id: tmax 99 last eve, afebrile overnight']</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:id: tmax 99 last eve, afebrile overnight']</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -879,25 +859,20 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>['keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
+          <t>['e1=Unknown|1:keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -970,25 +945,20 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['neuro: a&amp;ox3']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>['neuro: a&amp;ox3']</t>
+          <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1061,25 +1031,20 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>["patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>["patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
+          <t>["e1=Unknown|1:patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
-        <is>
-          <t>["e1=Unknown|1:patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1152,25 +1117,20 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>['others']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>['cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
+          <t>['e1=Unknown|1:cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1243,25 +1203,20 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Pain': {'Pain': {'severity': '8 (initially), 1-2 (currently)', 'location': 'head', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': '8 (initially), 1-2 (currently)', 'location': 'head', 'duration': 'Unknown'}}}]</t>
+          <t>['neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>['neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
+          <t>['e1=Pain|1:neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
-        <is>
-          <t>['e1=Pain|1:neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1334,25 +1289,20 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient']</t>
+          <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
+          <t>['patient awake', 'patient pupils equal and reactive to light', 'patient does follow commands']</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>['patient awake', 'patient pupils equal and reactive to light', 'patient does follow commands']</t>
+          <t>['e1=Unknown|1:patient awake', 'e2=Unknown|1:patient pupils equal and reactive to light', 'e3=Unknown|1:patient does follow commands']</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:patient awake', 'e2=Unknown|1:patient pupils equal and reactive to light', 'e3=Unknown|1:patient does follow commands']</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1425,25 +1375,20 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Eating': {'Eating': {'food': 'ativan', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[{'Eating': {'Eating': {'food': 'ativan', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+          <t>['continues on by mouth ativan atc for dt prohylaxis']</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>['continues on by mouth ativan atc for dt prohylaxis']</t>
+          <t>['e1=Eating|1:continues on by mouth ativan atc for dt prohylaxis']</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
-        <is>
-          <t>['e1=Eating|1:continues on by mouth ativan atc for dt prohylaxis']</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1516,25 +1461,20 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>['family member', 'family member']</t>
+          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'cousin'}}}, {'Family': {'Family': {'interaction': 'stay', 'relation': 'cousin'}}}]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'cousin'}}}, {'Family': {'Family': {'interaction': 'stay', 'relation': 'cousin'}}}]</t>
+          <t>["patient's family in visiting late and cousin stayed overnight", "patient's family in visiting late and cousin stayed overnight"]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>["patient's family in visiting late and cousin stayed overnight", "patient's family in visiting late and cousin stayed overnight"]</t>
+          <t>["e1=Family|1:patient's family in visiting late and cousin stayed overnight", "e2=Family|1:patient's family in visiting late and cousin stayed overnight"]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
-        <is>
-          <t>["e1=Family|1:patient's family in visiting late and cousin stayed overnight", "e2=Family|1:patient's family in visiting late and cousin stayed overnight"]</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1607,25 +1547,20 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['neuro: a/o x3, oob, steady on feet']</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>['neuro: a/o x3, oob, steady on feet']</t>
+          <t>['e1=Unknown|1:neuro: a/o x3, oob, steady on feet']</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:neuro: a/o x3, oob, steady on feet']</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1713,11 +1648,6 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
           <t>['[]']</t>
         </is>
       </c>
@@ -1789,25 +1719,20 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient']</t>
+          <t>[{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'continued'}}}]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'continued'}}}]</t>
+          <t>['more awake', 'weaned from vent', 'refractory hypertension and continued fevers and high wbc']</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>['more awake', 'weaned from vent', 'refractory hypertension and continued fevers and high wbc']</t>
+          <t>['e1=Unknown|1:more awake', 'e2=Unknown|1:weaned from vent', 'e3=Pain|1:refractory hypertension and continued fevers and high wbc']</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:more awake', 'e2=Unknown|1:weaned from vent', 'e3=Pain|1:refractory hypertension and continued fevers and high wbc']</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1880,25 +1805,20 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['neuro: a&amp;ox3']</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>['neuro: a&amp;ox3']</t>
+          <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1971,25 +1891,20 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['ativan .5mg as needed through out the day']</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>['ativan .5mg as needed through out the day']</t>
+          <t>['e1=Unknown|1:ativan .5mg as needed through out the day']</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:ativan .5mg as needed through out the day']</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2062,25 +1977,20 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>['neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
+          <t>['e1=Unknown|0:neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|0:neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2153,25 +2063,20 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>['patient', 'patient', 'patient']</t>
+          <t>[{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Unknown': {}}]</t>
+          <t>['ci 2.49-2.87 with mvo2 of 67%', 'patient a little more hypertensive overnight', 'restarted on nitro up to 2mcg with fair blood pressure control']</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>['ci 2.49-2.87 with mvo2 of 67%', 'patient a little more hypertensive overnight', 'restarted on nitro up to 2mcg with fair blood pressure control']</t>
+          <t>['e1=Unknown|1:ci 2.49-2.87 with mvo2 of 67%', 'e2=Pain|0:patient a little more hypertensive overnight', 'e3=Unknown|1:restarted on nitro up to 2mcg with fair blood pressure control']</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:ci 2.49-2.87 with mvo2 of 67%', 'e2=Pain|0:patient a little more hypertensive overnight', 'e3=Unknown|1:restarted on nitro up to 2mcg with fair blood pressure control']</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2244,25 +2149,20 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>['patient', 'patient']</t>
+          <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
+          <t>['neuro checks every 2hr', '?speech &amp; swallow [**doctor first name **]']</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>['neuro checks every 2hr', '?speech &amp; swallow [**doctor first name **]']</t>
+          <t>['e1=Unknown|1:neuro checks every 2hr', 'e2=Unknown|1:?speech &amp; swallow [**doctor first name **]']</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:neuro checks every 2hr', 'e2=Unknown|1:?speech &amp; swallow [**doctor first name **]']</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2335,25 +2235,20 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>['others']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['2-3 min this am, 2mg ativan given']</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>['2-3 min this am, 2mg ativan given']</t>
+          <t>['e1=Unknown|1:2-3 min this am, 2mg ativan given']</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:2-3 min this am, 2mg ativan given']</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2426,25 +2321,20 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['patient more awake today, following commands, left weaker than right']</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>['patient more awake today, following commands, left weaker than right']</t>
+          <t>['e1=Unknown|0:patient more awake today, following commands, left weaker than right']</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|0:patient more awake today, following commands, left weaker than right']</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2517,25 +2407,20 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['rcca stent']</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>['rcca stent']</t>
+          <t>['e1=Unknown|1:rcca stent']</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:rcca stent']</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2608,25 +2493,20 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>['others', '']</t>
+          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {}}]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {}}]</t>
+          <t>['gave 2mg mso4, with little effect', '']</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>['gave 2mg mso4, with little effect', '']</t>
+          <t>['e1=Pain|1:gave 2mg mso4, with little effect', 'e2=Eating|1:']</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
-        <is>
-          <t>['e1=Pain|1:gave 2mg mso4, with little effect', 'e2=Eating|1:']</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2699,25 +2579,20 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['intubated for agitation and airway protection']</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>['intubated for agitation and airway protection']</t>
+          <t>['e1=Unknown|1:intubated for agitation and airway protection']</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:intubated for agitation and airway protection']</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2790,25 +2665,20 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['cath sites soft and intact']</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>['cath sites soft and intact']</t>
+          <t>['e1=Unknown|1:cath sites soft and intact']</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:cath sites soft and intact']</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2881,25 +2751,20 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['consented for cool-mi']</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>['consented for cool-mi']</t>
+          <t>['e1=Unknown|1:consented for cool-mi']</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:consented for cool-mi']</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2972,25 +2837,20 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['had cxr']</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>['had cxr']</t>
+          <t>['e1=Unknown|1:had cxr']</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:had cxr']</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3063,25 +2923,20 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['p: monitor rhymth']</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>['p: monitor rhymth']</t>
+          <t>['e1=Unknown|1:p: monitor rhymth']</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:p: monitor rhymth']</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3154,25 +3009,20 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['[**last name (namepattern4) **] score varying between [**2-16**]']</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>['[**last name (namepattern4) **] score varying between [**2-16**]']</t>
+          <t>['e1=Unknown|1:[**last name (namepattern4) **] score varying between [**2-16**]']</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:[**last name (namepattern4) **] score varying between [**2-16**]']</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3245,25 +3095,20 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['ls decreased rll, clear upper bilat with faint rales lll']</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>['ls decreased rll, clear upper bilat with faint rales lll']</t>
+          <t>['e1=Unknown|1:ls decreased rll, clear upper bilat with faint rales lll']</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:ls decreased rll, clear upper bilat with faint rales lll']</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3351,11 +3196,6 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -3427,25 +3267,20 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>['map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
+          <t>['e1=Unknown|1:map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3518,25 +3353,20 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['tol sm amts clears']</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>['tol sm amts clears']</t>
+          <t>['e1=Unknown|1:tol sm amts clears']</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:tol sm amts clears']</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3609,25 +3439,20 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Eating': {'Eating': {'food': 'amio', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[{'Eating': {'Eating': {'food': 'amio', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+          <t>['on amio by mouth']</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>['on amio by mouth']</t>
+          <t>['e1=Eating|1:on amio by mouth']</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
-        <is>
-          <t>['e1=Eating|1:on amio by mouth']</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3715,11 +3540,6 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -3791,25 +3611,20 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['pneumonia- unable to access cxr report']</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>['pneumonia- unable to access cxr report']</t>
+          <t>['e1=Unknown|1:pneumonia- unable to access cxr report']</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:pneumonia- unable to access cxr report']</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3897,11 +3712,6 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -3973,25 +3783,20 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['milrinone at .375mcgs']</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>['milrinone at .375mcgs']</t>
+          <t>['e1=Unknown|1:milrinone at .375mcgs']</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:milrinone at .375mcgs']</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/TN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,30 +501,35 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>is_patient</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -532,16 +537,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28440_1633138_0024</t>
+          <t>4874_1325556_0035</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abx-vanco, flagyl, &amp; ceftazidine as ordered. socail=daughters initially present-updated. 1 daughter sleeping in waiting room</t>
+          <t>sister remained at bedside, sleeping on cot</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -552,22 +557,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(Timestamp('2106-01-28 05:48:00'), Timestamp('2106-01-28 06:01:00'))</t>
+          <t>(Timestamp('1991-09-12 05:21:00'), Timestamp('1991-09-12 05:55:00'))</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'text': 'abx-vanco, flagyl, &amp; ceftazidine as ordered. socail=daughters initially present-updated. 1 daughter sleeping in waiting room', 'event': ['Family', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Family",\n      "text_quote": "daughters initially present-updated.",\n      "actor": "patient",\n      "object": "family member",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "daughter"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "1 daughter sleeping in waiting room",\n      "actor": "family member",\n      "object": "Unknown",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['daughters initially present-updated.', '1 daughter sleeping in waiting room'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2106-01-28 05:48:00 and 2106-01-28 06:01:00):\n           abx-vanco, flagyl, &amp; ceftazidine as ordered. socail=daughters initially present-updated. 1 daughter sleeping in waiting room\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member'], 'event_detection_time': 7.74029441177845}</t>
+          <t>{'text': 'sister remained at bedside, sleeping on cot', 'event': ['Sleep', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sister remained at bedside, sleeping on cot",\n            "actor": "family member",\n            "object": "cot",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "sister remained at bedside, sleeping on cot",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "sister"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sister'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]], 'text_quotes': ['sister remained at bedside, sleeping on cot', 'sister remained at bedside, sleeping on cot'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1991-09-12 05:21:00 and 1991-09-12 05:55:00:\n\'sister remained at bedside, sleeping on cot\'\n', 'case_attributes': [[]], 'actor': ['family member', 'family member'], 'event_detection_time': 8.01670590811409}</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>family sleep</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -576,12 +577,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[False]</t>
+          <t>[True]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['1 daughter sleeping in waiting room']</t>
+          <t>['sister remained at bedside, sleeping on cot']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -589,73 +590,76 @@
           <t>['family member']</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>['Family', 'Sleep']</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
+          <t>['Sleep', 'Family']</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>['daughters initially present-updated.', '1 daughter sleeping in waiting room']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sister'}}}]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>['e1=Family|1:daughters initially present-updated.', 'e2=Sleep|1:1 daughter sleeping in waiting room']</t>
+          <t>['sister remained at bedside, sleeping on cot', 'sister remained at bedside, sleeping on cot']</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:sister remained at bedside, sleeping on cot', 'e2=Family|1:sister remained at bedside, sleeping on cot']</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>452</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>27281_1619425_0001</t>
+          <t>3748_1310486_0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet</t>
+          <t>s:  i can't sleep at night at home either</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(Timestamp('2122-11-21 15:19:00'), Timestamp('2122-11-21 15:44:00'))</t>
+          <t>(Timestamp('2009-06-09 04:34:00'), Timestamp('2009-06-09 04:53:00'))</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'text': "neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet", 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "neuro: patient intubated and sedated on fentanyl/versed drops\'s - see flow sheet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ["neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2122-11-21 15:19:00 and 2122-11-21 15:44:00):\n           neuro: patient intubated and sedated on fentanyl/versed drops\'s - see flow sheet\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5065749371424317}</t>
+          <t>{'text': "s:  i can't sleep at night at home either", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient has trouble sleeping at home"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2009-06-09 04:34:00 and 2009-06-09 04:53:00:\n\'s:  i can\'t sleep at night at home either\'\n', 'case_attributes': [[{'attribute_name': 'patient has trouble sleeping at home'}]], 'actor': [], 'event_detection_time': 1.2957175928167999}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -675,32 +679,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>["neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>["e1=Unknown|1:neuro: patient intubated and sedated on fentanyl/versed drops's - see flow sheet"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -708,36 +715,36 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>468</v>
+        <v>30</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16714_1480800_0026</t>
+          <t>3748_1310490_0026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>id: tmax 99 last eve, afebrile overnight</t>
+          <t>monitor resp sts/sleep apnea</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(Timestamp('2128-10-13 05:26:00'), Timestamp('2128-10-13 05:45:00'))</t>
+          <t>(Timestamp('2009-06-11 04:45:00'), Timestamp('2009-06-11 04:54:00'))</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'text': 'id: tmax 99 last eve, afebrile overnight', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "id: tmax 99 last eve, afebrile overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['id: tmax 99 last eve, afebrile overnight'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2128-10-13 05:26:00 and 2128-10-13 05:45:00):\n           id: tmax 99 last eve, afebrile overnight\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.313655406003818}</t>
+          <t>{'text': 'monitor resp sts/sleep apnea', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "monitoring",\n            "attribute_value": "resp sts/sleep apnea"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2009-06-11 04:45:00 and 2009-06-11 04:54:00:\n\'monitor resp sts/sleep apnea\'\n', 'case_attributes': [[{'attribute_name': 'monitoring', 'attribute_value': 'resp sts/sleep apnea'}]], 'actor': [], 'event_detection_time': 1.554200547048822}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
@@ -761,32 +768,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>['id: tmax 99 last eve, afebrile overnight']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:id: tmax 99 last eve, afebrile overnight']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -794,38 +804,42 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>469</v>
+        <v>64</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24771_1584203_0037</t>
+          <t>14995_1457380_0020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>p:  keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;</t>
+          <t>,daughter in room sleeping overnt-</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(Timestamp('2107-07-19 18:46:00'), Timestamp('2107-07-19 19:54:00'))</t>
+          <t>(Timestamp('1931-12-22 05:51:00'), Timestamp('1931-12-22 06:05:00'))</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'text': 'p:  keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2107-07-19 18:46:00 and 2107-07-19 19:54:00):\n           p:  keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.4939927409868687}</t>
+          <t>{'text': ',daughter in room sleeping overnt-', 'event': ['Sleep', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "daughter in room sleeping overnight",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "overnight"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "daughter in room sleeping overnight",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "daughter"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'overnight'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]], 'text_quotes': ['daughter in room sleeping overnight', 'daughter in room sleeping overnight'], 'event_time': ['overnight', 'overnight'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-12-22 05:51:00 and 1931-12-22 06:05:00:\n\',daughter in room sleeping overnt-\'\n', 'case_attributes': [[]], 'actor': ['family member', 'family member'], 'event_detection_time': 7.855230388930067}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>family sleeping</t>
+        </is>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -834,82 +848,85 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[False]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['daughter in room sleeping overnight']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+          <t>['family member']</t>
+        </is>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'overnight'}}}]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['Sleep', 'Family']</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>['keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'overnight'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:keep pc02 35-40, q2h neuro checks, goal diastolic blood pressure &lt;']</t>
+          <t>['daughter in room sleeping overnight', 'daughter in room sleeping overnight']</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Sleep|0:daughter in room sleeping overnight', 'e2=Family|0:daughter in room sleeping overnight']</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>480</v>
+        <v>66</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23897_1574662_0001</t>
+          <t>14995_1457380_0036</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>neuro: a&amp;ox3</t>
+          <t>sedation/sleep meds</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(Timestamp('2127-02-21 19:00:00'), Timestamp('2127-02-21 19:18:00'))</t>
+          <t>(Timestamp('1931-12-22 05:51:00'), Timestamp('1931-12-22 06:05:00'))</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'text': 'neuro: a&amp;ox3', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "neuro: a&amp;ox3",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['neuro: a&amp;ox3'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2127-02-21 19:00:00 and 2127-02-21 19:18:00):\n           neuro: a&amp;ox3\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.0607415481936187}</t>
+          <t>{'text': 'sedation/sleep meds', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "sedation/sleep meds",\n            "attribute_value": "requested"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-12-22 05:51:00 and 1931-12-22 06:05:00:\n\'sedation/sleep meds\'\n', 'case_attributes': [[{'attribute_name': 'sedation/sleep meds', 'attribute_value': 'requested'}]], 'actor': [], 'event_detection_time': 1.4803146398626268}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
@@ -933,32 +950,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O6" t="b">
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['neuro: a&amp;ox3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -966,36 +986,36 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>481</v>
+        <v>96</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28129_1629962_0013</t>
+          <t>22673_1558368_0014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation</t>
+          <t>robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(Timestamp('2154-06-12 03:41:00'), Timestamp('2154-06-12 04:08:00'))</t>
+          <t>(Timestamp('1996-08-11 18:05:00'), Timestamp('1996-08-11 18:22:00'))</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'text': "patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation", 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient remained in nst low 100\'s for most of the night, occasionally up to 110\'s when lightening from sedation",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ["patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2154-06-12 03:41:00 and 2154-06-12 04:08:00):\n           patient remained in nst low 100\'s for most of the night, occasionally up to 110\'s when lightening from sedation\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.669913599966094}</t>
+          <t>{'text': 'robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient\'s preference",\n            "attribute_value": "clear secretions during the day"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1996-08-11 18:05:00 and 1996-08-11 18:22:00:\n\'robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day\'\n', 'case_attributes': [[{'attribute_name': "patient's preference", 'attribute_value': 'clear secretions during the day'}]], 'actor': [], 'event_detection_time': 1.6210100308526307}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
@@ -1019,32 +1039,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O7" t="b">
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>["patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>["e1=Unknown|1:patient remained in nst low 100's for most of the night, occasionally up to 110's when lightening from sedation"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1052,38 +1075,42 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>491</v>
+        <v>107</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24617_1582462_0030</t>
+          <t>22673_1558377_0011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed. ?</t>
+          <t>asking for sleeping aid again</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(Timestamp('2165-03-14 03:22:00'), Timestamp('2165-03-14 03:33:00'))</t>
+          <t>(Timestamp('1996-08-15 05:19:00'), Timestamp('1996-08-15 05:32:00'))</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'text': 'cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed. ?', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2165-03-14 03:22:00 and 2165-03-14 03:33:00):\n           cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed. ?\n        ', 'case_attributes': [[]], 'actor': ['others'], 'event_detection_time': 3.535267350031063}</t>
+          <t>{'text': 'asking for sleeping aid again', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "requested sleeping aid before"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "asking for sleeping aid again",\n            "actor": "patient",\n            "object": "sleeping aid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['asking for sleeping aid again'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1996-08-15 05:19:00 and 1996-08-15 05:32:00:\n\'asking for sleeping aid again\'\n', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'requested sleeping aid before'}]], 'actor': ['patient'], 'event_detection_time': 3.8452117580454797}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>request for med</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -1105,32 +1132,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O8" t="b">
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>['cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:cont to monitor neuro status, resp, gi/gu and cv-treat afib w/lopressor as needed.']</t>
+          <t>['asking for sleeping aid again']</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:asking for sleeping aid again']</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1138,36 +1168,36 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>499</v>
+        <v>123</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30062_1650162_0006</t>
+          <t>25328_1592834_0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>neuro - headache pain 8 just prior to angio, now down to 1-2</t>
+          <t>ccu nursing progress note 1900-0700: 3vd, preop cabgs-" am i getting a sleeping pill tonight</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(Timestamp('2144-02-01 19:01:00'), Timestamp('2144-02-01 19:17:00'))</t>
+          <t>(Timestamp('2012-06-06 03:01:00'), Timestamp('2012-06-06 03:31:00'))</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'text': 'neuro - headache pain 8 just prior to angio, now down to 1-2', 'event': ['Pain'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "neuro - headache pain 8 just prior to angio, now down to 1-2",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "8 (initially), 1-2 (currently)",\n          "location": "head",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Pain': {'Pain': {'severity': '8 (initially), 1-2 (currently)', 'location': 'head', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['neuro - headache pain 8 just prior to angio, now down to 1-2'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2144-02-01 19:01:00 and 2144-02-01 19:17:00):\n           neuro - headache pain 8 just prior to angio, now down to 1-2\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.678727084072307}</t>
+          <t>{'text': 'ccu nursing progress note 1900-0700: 3vd, preop cabgs-" am i getting a sleeping pill tonight', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "preop cabgs",\n      "attribute_value": "planned"\n    },\n    {\n      "attribute_name": "request for sleeping pill",\n      "attribute_value": "yes"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2012-06-06 03:01:00 and 2012-06-06 03:31:00:\n\'ccu nursing progress note 1900-0700: 3vd, preop cabgs-" am i getting a sleeping pill tonight\'\n', 'case_attributes': [[{'attribute_name': 'preop cabgs', 'attribute_value': 'planned'}, {'attribute_name': 'request for sleeping pill', 'attribute_value': 'yes'}]], 'actor': [], 'event_detection_time': 2.1902899611741304}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
@@ -1191,32 +1221,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O9" t="b">
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['Pain']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': '8 (initially), 1-2 (currently)', 'location': 'head', 'duration': 'Unknown'}}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:neuro - headache pain 8 just prior to angio, now down to 1-2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1224,36 +1257,36 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>515</v>
+        <v>141</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31051_1659774_0000</t>
+          <t>32291_1671530_0002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>neuro: patient awake, patient pupils equal and reactive to light, patient does follow commands</t>
+          <t>stated that he was very tired and wanted to sleep around 9pm</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(Timestamp('2197-07-15 17:02:00'), Timestamp('2197-07-15 17:33:00'))</t>
+          <t>(Timestamp('2000-04-02 02:12:00'), Timestamp('2000-04-02 02:27:00'))</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'text': 'neuro: patient awake, patient pupils equal and reactive to light, patient does follow commands', 'event': ['Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient awake",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "patient pupils equal and reactive to light",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "patient does follow commands",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['patient awake', 'patient pupils equal and reactive to light', 'patient does follow commands'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2197-07-15 17:02:00 and 2197-07-15 17:33:00):\n           neuro: patient awake, patient pupils equal and reactive to light, patient does follow commands\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 9.408102247165516}</t>
+          <t>{'text': 'stated that he was very tired and wanted to sleep around 9pm', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "wanted to sleep at home"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2000-04-02 02:12:00 and 2000-04-02 02:27:00:\n\'stated that he was very tired and wanted to sleep around 9pm\'\n', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'wanted to sleep at home'}]], 'actor': [], 'event_detection_time': 1.5425471689086407}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
@@ -1277,69 +1310,72 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O10" t="b">
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['Unknown', 'Unknown', 'Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>['patient awake', 'patient pupils equal and reactive to light', 'patient does follow commands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:patient awake', 'e2=Unknown|1:patient pupils equal and reactive to light', 'e3=Unknown|1:patient does follow commands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>523</v>
+        <v>146</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8663_1376914_0005</t>
+          <t>32291_1671532_0016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>continues on by mouth ativan atc for dt prohylaxis</t>
+          <t>will need bipap when sleeping</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(Timestamp('2192-11-06 09:53:00'), Timestamp('2192-11-06 09:58:00'))</t>
+          <t>(Timestamp('2000-04-02 18:45:00'), Timestamp('2000-04-02 18:52:00'))</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'text': 'continues on by mouth ativan atc for dt prohylaxis', 'event': ['Eating'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Eating",\n      "text_quote": "continues on by mouth ativan atc for dt prohylaxis",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ativan",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Eating': {'Eating': {'food': 'ativan', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[]], 'text_quotes': ['continues on by mouth ativan atc for dt prohylaxis'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2192-11-06 09:53:00 and 2192-11-06 09:58:00):\n           continues on by mouth ativan atc for dt prohylaxis\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.231984143843874}</t>
+          <t>{'text': 'will need bipap when sleeping', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "need for bipap",\n            "attribute_value": "when sleeping"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2000-04-02 18:45:00 and 2000-04-02 18:52:00:\n\'will need bipap when sleeping\'\n', 'case_attributes': [[{'attribute_name': 'need for bipap', 'attribute_value': 'when sleeping'}]], 'actor': [], 'event_detection_time': 1.4998271351214498}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
@@ -1363,32 +1399,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O11" t="b">
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['Eating']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[{'Eating': {'Eating': {'food': 'ativan', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>['continues on by mouth ativan atc for dt prohylaxis']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>['e1=Eating|1:continues on by mouth ativan atc for dt prohylaxis']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1396,38 +1435,42 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>546</v>
+        <v>160</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26374_1606775_0005</t>
+          <t>20147_1527201_0031</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>patient's family in visiting late and cousin stayed overnight</t>
+          <t>daughter was encourage to rest and was able to sleep the night</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(Timestamp('2148-11-19 05:22:00'), Timestamp('2148-11-19 05:25:00'))</t>
+          <t>(Timestamp('1951-03-25 06:29:00'), Timestamp('1951-03-25 06:44:00'))</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'text': "patient's family in visiting late and cousin stayed overnight", 'event': ['Family', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Family",\n      "text_quote": "patient\'s family in visiting late and cousin stayed overnight",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "late",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "cousin"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "patient\'s family in visiting late and cousin stayed overnight",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "stay",\n          "relation": "cousin"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'cousin'}}}, {'Family': {'Family': {'interaction': 'stay', 'relation': 'cousin'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ["patient's family in visiting late and cousin stayed overnight", "patient's family in visiting late and cousin stayed overnight"], 'event_time': ['late', 'overnight'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2148-11-19 05:22:00 and 2148-11-19 05:25:00):\n           patient\'s family in visiting late and cousin stayed overnight\n        ', 'case_attributes': [[]], 'actor': ['family member', 'family member'], 'event_detection_time': 8.08644198696129}</t>
+          <t>{'text': 'daughter was encourage to rest and was able to sleep the night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "daughter was encourage to rest and was able to sleep the night",\n            "actor": "family member",\n            "object": "family member",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['daughter was encourage to rest and was able to sleep the night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1951-03-25 06:29:00 and 1951-03-25 06:44:00:\n\'daughter was encourage to rest and was able to sleep the night\'\n', 'case_attributes': [[]], 'actor': ['family member'], 'event_detection_time': 3.971851855982095}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>family event</t>
+        </is>
+      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
@@ -1436,82 +1479,85 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[False]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['daughter was encourage to rest and was able to sleep the night']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+          <t>['family member']</t>
+        </is>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>['Family', 'Family']</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'cousin'}}}, {'Family': {'Family': {'interaction': 'stay', 'relation': 'cousin'}}}]</t>
+          <t>['Sleep']</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>["patient's family in visiting late and cousin stayed overnight", "patient's family in visiting late and cousin stayed overnight"]</t>
+          <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>["e1=Family|1:patient's family in visiting late and cousin stayed overnight", "e2=Family|1:patient's family in visiting late and cousin stayed overnight"]</t>
+          <t>['daughter was encourage to rest and was able to sleep the night']</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+          <t>['e1=Sleep|1:daughter was encourage to rest and was able to sleep the night']</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>549</v>
+        <v>170</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22756_1559010_0002</t>
+          <t>17412_1490410_0013</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>neuro: a/o x3, oob, steady on feet</t>
+          <t>order for sleeping pills, pain mgmt</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(Timestamp('2103-05-22 16:45:00'), Timestamp('2103-05-22 17:06:00'))</t>
+          <t>(Timestamp('1930-04-15 05:47:00'), Timestamp('1930-04-15 06:09:00'))</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'text': 'neuro: a/o x3, oob, steady on feet', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "neuro: a/o x3, oob, steady on feet",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['neuro: a/o x3, oob, steady on feet'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2103-05-22 16:45:00 and 2103-05-22 17:06:00):\n           neuro: a/o x3, oob, steady on feet\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.2709330942016095}</t>
+          <t>{'text': 'order for sleeping pills, pain mgmt', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "order for sleeping pills"\n        },\n        {\n            "attribute_name": "pain management plan"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1930-04-15 05:47:00 and 1930-04-15 06:09:00:\n\'order for sleeping pills, pain mgmt\'\n', 'case_attributes': [[{'attribute_name': 'order for sleeping pills'}, {'attribute_name': 'pain management plan'}]], 'actor': [], 'event_detection_time': 1.6516598728485405}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
@@ -1535,32 +1581,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O13" t="b">
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['neuro: a/o x3, oob, steady on feet']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:neuro: a/o x3, oob, steady on feet']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1568,38 +1617,42 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>578</v>
+        <v>174</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22308_1554260_0000</t>
+          <t>18799_1509485_0007</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>awoke,mae x 4 to command.shivering w waking with decreased svo2-&gt;demerol w effect</t>
+          <t>patient was concerned she would not sleep</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(Timestamp('2153-08-10 21:45:00'), Timestamp('2153-08-10 21:50:00'))</t>
+          <t>(Timestamp('1995-03-14 04:07:00'), Timestamp('1995-03-14 04:31:00'))</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'text': 'awoke,mae x 4 to command.shivering w waking with decreased svo2-&gt;demerol w effect', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "awoke",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "interrupted"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "shivering w waking with decreased svo2-&gt;demerol w effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e76",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e77",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e78",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e79",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e80",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e81",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e82",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e83",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e84",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e85",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e86",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e87",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e88",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown"</t>
+          <t>{'text': 'patient was concerned she would not sleep', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "concern about sleeping"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1995-03-14 04:07:00 and 1995-03-14 04:31:00:\n\'patient was concerned she would not sleep\'\n', 'case_attributes': [[{'attribute_name': 'concern about sleeping'}]], 'actor': [], 'event_detection_time': 1.2313124719075859}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>concern</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -1621,10 +1674,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O14" t="b">
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1648,44 +1699,53 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>['[]']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>619</v>
+        <v>194</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1272_1278715_0039</t>
+          <t>15046_1458036_0001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc</t>
+          <t>given trazadone last eve for sleep</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(Timestamp('2100-11-25 04:45:00'), Timestamp('2100-11-25 05:06:00'))</t>
+          <t>(Timestamp('2018-10-31 05:08:00'), Timestamp('2018-10-31 05:14:00'))</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'text': 'more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc', 'event': ['Unknown', 'Unknown', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "more awake",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "weaned from vent",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "refractory hypertension and continued fevers and high wbc",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "continued"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'continued'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['more awake', 'weaned from vent', 'refractory hypertension and continued fevers and high wbc'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2100-11-25 04:45:00 and 2100-11-25 05:06:00):\n           more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 10.462024028878659}</t>
+          <t>{'text': 'given trazadone last eve for sleep', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "patient history",\n      "attribute_value": "given trazadone last eve for sleep"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2018-10-31 05:08:00 and 2018-10-31 05:14:00:\n\'given trazadone last eve for sleep\'\n', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'given trazadone last eve for sleep'}]], 'actor': [], 'event_detection_time': 1.6702673230320215}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>medication for sleep</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -1707,71 +1767,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O15" t="b">
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['Unknown', 'Unknown', 'Pain']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'continued'}}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['more awake', 'weaned from vent', 'refractory hypertension and continued fevers and high wbc']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:more awake', 'e2=Unknown|1:weaned from vent', 'e3=Pain|1:refractory hypertension and continued fevers and high wbc']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>620</v>
+        <v>198</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21904_1549479_0004</t>
+          <t>3996_1314681_0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>neuro: a&amp;ox3</t>
+          <t>nsg admission note 23 yr old man, fell asleep while driving, hit a tree</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(Timestamp('2165-07-05 17:34:00'), Timestamp('2165-07-05 17:39:00'))</t>
+          <t>(Timestamp('2030-08-21 23:58:00'), Timestamp('2030-08-22 00:07:00'))</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'text': 'neuro: a&amp;ox3', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "neuro: a&amp;ox3",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['neuro: a&amp;ox3'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2165-07-05 17:34:00 and 2165-07-05 17:39:00):\n           neuro: a&amp;ox3\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': nan}</t>
+          <t>{'text': 'nsg admission note 23 yr old man, fell asleep while driving, hit a tree', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "23"\n        },\n        {\n            "attribute_name": "admission reason",\n            "attribute_value": "fell asleep while driving and hit a tree"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2030-08-21 23:58:00 and 2030-08-22 00:07:00:\n\'nsg admission note 23 yr old man, fell asleep while driving, hit a tree\'\n', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '23'}, {'attribute_name': 'admission reason', 'attribute_value': 'fell asleep while driving and hit a tree'}]], 'actor': [], 'event_detection_time': 2.245996382087469}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>case attribute</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -1793,32 +1860,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O16" t="b">
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>['neuro: a&amp;ox3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:neuro: a&amp;ox3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1826,38 +1896,42 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>646</v>
+        <v>214</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28464_1633456_0023</t>
+          <t>23243_1565970_0002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ativan .5mg as needed through out the day</t>
+          <t>ativan .5mg iv x1 at 0000 given for sleep</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(Timestamp('2120-02-23 22:44:00'), Timestamp('2120-02-23 23:36:00'))</t>
+          <t>(Timestamp('1951-10-21 05:55:00'), Timestamp('1951-10-21 06:17:00'))</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'text': 'ativan .5mg as needed through out the day', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "ativan .5mg as needed through out the day",\n      "actor": "patient",\n      "object": "others",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['ativan .5mg as needed through out the day'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2120-02-23 22:44:00 and 2120-02-23 23:36:00):\n           ativan .5mg as needed through out the day\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.182839573128149}</t>
+          <t>{'text': 'ativan .5mg iv x1 at 0000 given for sleep', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "medication_request",\n            "attribute_value": "Ativan .5mg IV"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1951-10-21 05:55:00 and 1951-10-21 06:17:00:\n\'ativan .5mg iv x1 at 0000 given for sleep\'\n', 'case_attributes': [[{'attribute_name': 'medication_request', 'attribute_value': 'Ativan .5mg IV'}]], 'actor': [], 'event_detection_time': 1.6065176608972251}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Need to know context</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -1879,32 +1953,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O17" t="b">
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>['ativan .5mg as needed through out the day']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:ativan .5mg as needed through out the day']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1912,36 +1989,36 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>678</v>
+        <v>217</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30566_1655434_0001</t>
+          <t>1491_1281554_0034</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>neuro:  a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing</t>
+          <t>comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(Timestamp('2163-02-20 08:36:00'), Timestamp('2163-02-20 09:00:00'))</t>
+          <t>(Timestamp('1968-02-18 23:49:00'), Timestamp('1968-02-19 00:04:00'))</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'text': 'neuro:  a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2163-02-20 08:36:00 and 2163-02-20 09:00:00):\n           neuro:  a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.521663347957656}</t>
+          <t>{'text': 'comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "medication",\n            "attribute_value": "ms 1-10mg iv q3 hr for pain"\n        },\n        {\n            "attribute_name": "medication",\n            "attribute_value": "ativan 1mg iv q6hr for anxiety and sleep"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1968-02-18 23:49:00 and 1968-02-19 00:04:00:\n\'comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep\'\n', 'case_attributes': [[{'attribute_name': 'medication', 'attribute_value': 'ms 1-10mg iv q3 hr for pain'}, {'attribute_name': 'medication', 'attribute_value': 'ativan 1mg iv q6hr for anxiety and sleep'}]], 'actor': ['patient'], 'event_detection_time': 5.752051958115771}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
@@ -1965,32 +2042,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O18" t="b">
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>['neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
-        </is>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>['e1=Unknown|0:neuro: a&amp;o x 3, lethargic, needs encouragement with moving, db, coughing']</t>
+          <t>['comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep']</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep']</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1998,36 +2078,36 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>698</v>
+        <v>226</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25214_1591283_0005</t>
+          <t>4413_1319540_0005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ci 2.49-2.87 with mvo2 of 67% patient alittle more hypertensive overnight restarted on nitro up to 2mcg with fair blood pressure control</t>
+          <t>patient refusing ng tube, despite several attempts to persuade her. patient stated she would agree to ng if she were "put to sleep", with sedation to keep her comfortable</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(Timestamp('2197-11-06 04:29:00'), Timestamp('2197-11-06 04:35:00'))</t>
+          <t>(Timestamp('2002-04-15 06:34:00'), Timestamp('2002-04-15 06:54:00'))</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'text': 'ci 2.49-2.87 with mvo2 of 67% patient alittle more hypertensive overnight restarted on nitro up to 2mcg with fair blood pressure control', 'event': ['Unknown', 'Pain', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "ci 2.49-2.87 with mvo2 of 67%",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient a little more hypertensive overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown",\n          "duration": "overnight"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "restarted on nitro up to 2mcg with fair blood pressure control",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e2",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['ci 2.49-2.87 with mvo2 of 67%', 'patient a little more hypertensive overnight', 'restarted on nitro up to 2mcg with fair blood pressure control'], 'event_time': ['overnight', 'overnight', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'e2'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2197-11-06 04:29:00 and 2197-11-06 04:35:00):\n           ci 2.49-2.87 with mvo2 of 67% patient alittle more hypertensive overnight restarted on nitro up to 2mcg with fair blood pressure control\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.246287546120584}</t>
+          <t>{'text': 'patient refusing ng tube, despite several attempts to persuade her. patient stated she would agree to ng if she were "put to sleep", with sedation to keep her comfortable', 'event': ['Unknown', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "Patient\'s refusal of NG tube",\n            "attribute_value": "despite several attempts to persuade her"\n        },\n        {\n            "attribute_name": "Patient\'s condition for agreeing to NG tube",\n            "attribute_value": "if she were \'put to sleep\' with sedation"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient refusing ng tube, despite several attempts to persuade her.",\n            "actor": "patient",\n            "object": "NG tube",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "patient stated she would agree to ng if she were \'put to sleep\', with sedation to keep her comfortable",\n            "actor": "patient",\n            "object": "NG tube",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient refusing ng tube, despite several attempts to persuade her.', "patient stated she would agree to ng if she were 'put to sleep', with sedation to keep her comfortable"], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2002-04-15 06:34:00 and 2002-04-15 06:54:00:\n\'patient refusing ng tube, despite several attempts to persuade her. patient stated she would agree to ng if she were "put to sleep", with sedation to keep her comfortable\'\n', 'case_attributes': [[{'attribute_name': "Patient's refusal of NG tube", 'attribute_value': 'despite several attempts to persuade her'}, {'attribute_name': "Patient's condition for agreeing to NG tube", 'attribute_value': "if she were 'put to sleep' with sedation"}]], 'actor': ['patient', 'patient'], 'event_detection_time': 9.115188354160637}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
@@ -2051,69 +2131,72 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O19" t="b">
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['Unknown', 'Pain', 'Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Unknown': {}}]</t>
+          <t>['Unknown', 'Unknown']</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>['ci 2.49-2.87 with mvo2 of 67%', 'patient a little more hypertensive overnight', 'restarted on nitro up to 2mcg with fair blood pressure control']</t>
+          <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:ci 2.49-2.87 with mvo2 of 67%', 'e2=Pain|0:patient a little more hypertensive overnight', 'e3=Unknown|1:restarted on nitro up to 2mcg with fair blood pressure control']</t>
+          <t>['patient refusing ng tube, despite several attempts to persuade her.', "patient stated she would agree to ng if she were 'put to sleep', with sedation to keep her comfortable"]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
+          <t>['e1=Unknown|1:patient refusing ng tube, despite several attempts to persuade her.', "e2=Unknown|0:patient stated she would agree to ng if she were 'put to sleep', with sedation to keep her comfortable"]</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>701</v>
+        <v>265</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26817_1613124_0019</t>
+          <t>22766_1559069_0028</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>neuro checks every 2hr, ?speech &amp; swallow [**doctor first name **]</t>
+          <t>xanax/ambien for sleep.contin</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(Timestamp('2126-09-25 17:28:00'), Timestamp('2126-09-25 17:38:00'))</t>
+          <t>(Timestamp('2026-09-15 05:26:00'), Timestamp('2026-09-15 05:41:00'))</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'text': 'neuro checks every 2hr, ?speech &amp; swallow [**doctor first name **]', 'event': ['Unknown', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "neuro checks every 2hr",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "every 2hr",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "?speech &amp; swallow [**doctor first name **]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['neuro checks every 2hr', '?speech &amp; swallow [**doctor first name **]'], 'event_time': ['every 2hr', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2126-09-25 17:28:00 and 2126-09-25 17:38:00):\n           neuro checks every 2hr, ?speech &amp; swallow [**doctor first name **]\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 6.508185860002413}</t>
+          <t>{'text': 'xanax/ambien for sleep.contin', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "medication_request",\n            "attribute_value": "xanax/ambien for sleep"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2026-09-15 05:26:00 and 2026-09-15 05:41:00:\n\'xanax/ambien for sleep.contin\'\n', 'case_attributes': [[{'attribute_name': 'medication_request', 'attribute_value': 'xanax/ambien for sleep'}]], 'actor': [], 'event_detection_time': 1.6241945149376988}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
@@ -2137,71 +2220,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O20" t="b">
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['Unknown', 'Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>['neuro checks every 2hr', '?speech &amp; swallow [**doctor first name **]']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:neuro checks every 2hr', 'e2=Unknown|1:?speech &amp; swallow [**doctor first name **]']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>[[]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>704</v>
+        <v>280</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17858_1497020_0019</t>
+          <t>3327_1304777_0003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-3 min this am, 2mg ativan given</t>
+          <t>[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(Timestamp('2103-06-28 18:30:00'), Timestamp('2103-06-28 19:29:00'))</t>
+          <t>(Timestamp('1936-11-11 14:08:00'), Timestamp('1936-11-11 14:21:00'))</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'text': '2-3 min this am, 2mg ativan given', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "2-3 min this am, 2mg ativan given",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "am",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['2-3 min this am, 2mg ativan given'], 'event_time': ['am'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2103-06-28 18:30:00 and 2103-06-28 19:29:00):\n           2-3 min this am, 2mg ativan given\n        ', 'case_attributes': [[]], 'actor': ['others'], 'event_detection_time': 3.2479965519160032}</t>
+          <t>{'text': '[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient\'s history",\n            "attribute_value": "was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1936-11-11 14:08:00 and 1936-11-11 14:21:00:\n\'[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree\'\n', 'case_attributes': [[{'attribute_name': "patient's history", 'attribute_value': 'was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree'}]], 'actor': [], 'event_detection_time': 1.9747479620855302}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>case attribute</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -2223,32 +2313,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O21" t="b">
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>['2-3 min this am, 2mg ativan given']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:2-3 min this am, 2mg ativan given']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2256,36 +2349,36 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>744</v>
+        <v>292</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17777_1495479_0004</t>
+          <t>1135_1277045_0009</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>neuro: patient more awake today, follwing commands, mae- left weaker than right</t>
+          <t>speach and swallow consult reminded patient that [** **] should be removed in evening prior to going to sleep</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(Timestamp('2121-08-24 19:24:00'), Timestamp('2121-08-24 19:37:00'))</t>
+          <t>(Timestamp('1983-04-05 15:12:00'), Timestamp('1983-04-05 15:38:00'))</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'text': 'neuro: patient more awake today, follwing commands, mae- left weaker than right', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient more awake today, following commands, left weaker than right",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "today",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient more awake today, following commands, left weaker than right'], 'event_time': ['today'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2121-08-24 19:24:00 and 2121-08-24 19:37:00):\n           neuro: patient more awake today, follwing commands, mae- left weaker than right\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.2396569061093032}</t>
+          <t>{'text': 'speach and swallow consult reminded patient that [** **] should be removed in evening prior to going to sleep', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "speech and swallow consult"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1983-04-05 15:12:00 and 1983-04-05 15:38:00:\n\'speach and swallow consult reminded patient that [** **] should be removed in evening prior to going to sleep\'\n', 'case_attributes': [[{'attribute_name': 'speech and swallow consult'}]], 'actor': [], 'event_detection_time': 1.2540086328517646}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
@@ -2309,32 +2402,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O22" t="b">
+        <v>1</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>['patient more awake today, following commands, left weaker than right']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>['e1=Unknown|0:patient more awake today, following commands, left weaker than right']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2342,36 +2438,36 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>754</v>
+        <v>315</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23082_1563929_0001</t>
+          <t>3722_1310151_0036</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>rcca stent</t>
+          <t>focused on need to alter diet, use bipap to sleep at nite</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-04-04 06:13:00'), Timestamp('2151-04-04 06:29:00'))</t>
+          <t>(Timestamp('1975-04-08 05:33:00'), Timestamp('1975-04-08 05:50:00'))</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'text': 'rcca stent', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "rcca stent",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['rcca stent'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-04-04 06:13:00 and 2151-04-04 06:29:00):\n           rcca stent\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 2.977854168973863}</t>
+          <t>{'text': 'focused on need to alter diet, use bipap to sleep at nite', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "diet alteration plan",\n            "attribute_value": "need to alter diet"\n        },\n        {\n            "attribute_name": "bipap usage plan",\n            "attribute_value": "use bipap to sleep at nite"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1975-04-08 05:33:00 and 1975-04-08 05:50:00:\n\'focused on need to alter diet, use bipap to sleep at nite\'\n', 'case_attributes': [[{'attribute_name': 'diet alteration plan', 'attribute_value': 'need to alter diet'}, {'attribute_name': 'bipap usage plan', 'attribute_value': 'use bipap to sleep at nite'}]], 'actor': [], 'event_detection_time': 2.457700249971822}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
@@ -2395,32 +2491,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O23" t="b">
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>['rcca stent']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:rcca stent']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2428,36 +2527,36 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>760</v>
+        <v>329</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4874_1325555_0007</t>
+          <t>318_1264708_0003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gave 2mg mso4, with little effect</t>
+          <t>patient given sleep aid, tolerated well</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-16 22:17:00'), Timestamp('2162-06-16 22:43:00'))</t>
+          <t>(Timestamp('1958-09-04 06:16:00'), Timestamp('1958-09-04 06:30:00'))</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'text': 'gave 2mg mso4, with little effect', 'event': ['Pain', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "gave 2mg mso4, with little effect",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {}}], 'orders': [[]], 'text_quotes': ['gave 2mg mso4, with little effect', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-16 22:17:00 and 2162-06-16 22:43:00):\n           gave 2mg mso4, with little effect\n        ', 'case_attributes': [[]], 'actor': ['others', ''], 'event_detection_time': 6.114365768851712}</t>
+          <t>{'text': 'patient given sleep aid, tolerated well', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "given sleep aid"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient given sleep aid, tolerated well",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient given sleep aid, tolerated well'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1958-09-04 06:16:00 and 1958-09-04 06:30:00:\n\'patient given sleep aid, tolerated well\'\n', 'case_attributes': [[{'attribute_name': 'given sleep aid'}]], 'actor': ['others'], 'event_detection_time': 3.560863981023431}</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
@@ -2481,32 +2580,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O24" t="b">
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>['Pain', 'Eating']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {}}]</t>
+          <t>['Unknown']</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>['gave 2mg mso4, with little effect', '']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>['e1=Pain|1:gave 2mg mso4, with little effect', 'e2=Eating|1:']</t>
+          <t>['patient given sleep aid, tolerated well']</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:patient given sleep aid, tolerated well']</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2514,36 +2616,36 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>763</v>
+        <v>340</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22673_1558361_0012</t>
+          <t>1135_1277049_0010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>intubated for agitation and airway protection</t>
+          <t>gets anxious, appears to be about breathing, won't tolerate being on side, has ativan pro re nata and trazadone for sleeping @ night</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(Timestamp('2167-05-15 18:51:00'), Timestamp('2167-05-15 19:18:00'))</t>
+          <t>(Timestamp('1983-04-06 17:13:00'), Timestamp('1983-04-06 17:38:00'))</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'text': 'intubated for agitation and airway protection', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "intubated for agitation and airway protection",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['intubated for agitation and airway protection'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2167-05-15 18:51:00 and 2167-05-15 19:18:00):\n           intubated for agitation and airway protection\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.1132731831166893}</t>
+          <t>{'text': "gets anxious, appears to be about breathing, won't tolerate being on side, has ativan pro re nata and trazadone for sleeping @ night", 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "anxiety",\n            "attribute_value": "breathing-related"\n        },\n        {\n            "attribute_name": "medication",\n            "attribute_value": "Ativan pro re nata and Trazadone for sleeping @ night"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "gets anxious, appears to be about breathing",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['gets anxious, appears to be about breathing'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1983-04-06 17:13:00 and 1983-04-06 17:38:00:\n\'gets anxious, appears to be about breathing, won\'t tolerate being on side, has ativan pro re nata and trazadone for sleeping @ night\'\n', 'case_attributes': [[{'attribute_name': 'anxiety', 'attribute_value': 'breathing-related'}, {'attribute_name': 'medication', 'attribute_value': 'Ativan pro re nata and Trazadone for sleeping @ night'}]], 'actor': ['patient'], 'event_detection_time': 4.909810345852748}</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
@@ -2567,32 +2669,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O25" t="b">
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>['intubated for agitation and airway protection']</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:intubated for agitation and airway protection']</t>
+          <t>['gets anxious, appears to be about breathing']</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:gets anxious, appears to be about breathing']</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2600,36 +2705,36 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>768</v>
+        <v>345</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22673_1558375_0021</t>
+          <t>14412_1450247_0003</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cath sites soft and intact</t>
+          <t>to facilitate sleep &amp; help control bp</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(Timestamp('2167-05-20 14:27:00'), Timestamp('2167-05-20 14:43:00'))</t>
+          <t>(Timestamp('1979-01-21 05:43:00'), Timestamp('1979-01-21 06:20:00'))</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'text': 'cath sites soft and intact', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "cath sites soft and intact",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['cath sites soft and intact'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2167-05-20 14:27:00 and 2167-05-20 14:43:00):\n           cath sites soft and intact\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.021374518983066}</t>
+          <t>{'text': 'to facilitate sleep &amp; help control bp', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "request for sleeping aid",\n            "attribute_value": "to facilitate sleep &amp; help control bp"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1979-01-21 05:43:00 and 1979-01-21 06:20:00:\n\'to facilitate sleep &amp; help control bp\'\n', 'case_attributes': [[{'attribute_name': 'request for sleeping aid', 'attribute_value': 'to facilitate sleep &amp; help control bp'}]], 'actor': [], 'event_detection_time': 1.6567380379419774}</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
@@ -2653,32 +2758,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O26" t="b">
+        <v>1</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['cath sites soft and intact']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:cath sites soft and intact']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2686,36 +2794,36 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>777</v>
+        <v>358</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23082_1563923_0010</t>
+          <t>19938_1524740_0021</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>consented for cool-mi</t>
+          <t>pro re nata ativan by mouth ordered, give to sleep and as nec. for anxiety, esp</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-04-02 07:08:00'), Timestamp('2151-04-02 08:13:00'))</t>
+          <t>(Timestamp('1976-01-09 22:40:00'), Timestamp('1976-01-09 22:58:00'))</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'text': 'consented for cool-mi', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "consented for cool-mi",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['consented for cool-mi'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-04-02 07:08:00 and 2151-04-02 08:13:00):\n           consented for cool-mi\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.032139612128958}</t>
+          <t>{'text': 'pro re nata ativan by mouth ordered, give to sleep and as nec. for anxiety, esp', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "past_medication",\n            "attribute_value": "pro re nata ativan"\n        },\n        {\n            "attribute_name": "medication_purpose",\n            "attribute_value": "sleep and anxiety"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1976-01-09 22:40:00 and 1976-01-09 22:58:00:\n\'pro re nata ativan by mouth ordered, give to sleep and as nec. for anxiety, esp\'\n', 'case_attributes': [[{'attribute_name': 'past_medication', 'attribute_value': 'pro re nata ativan'}, {'attribute_name': 'medication_purpose', 'attribute_value': 'sleep and anxiety'}]], 'actor': [], 'event_detection_time': 2.343286351999268}</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
@@ -2739,32 +2847,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O27" t="b">
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['consented for cool-mi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:consented for cool-mi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2772,36 +2883,36 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>780</v>
+        <v>382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4874_1325547_0015</t>
+          <t>25621_1596320_0010</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>had cxr</t>
+          <t>encouraged to take sleeping aid to facilitate uninterupted sleep</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-13 22:52:00'), Timestamp('2162-06-13 23:02:00'))</t>
+          <t>(Timestamp('1948-07-09 04:52:00'), Timestamp('1948-07-09 05:17:00'))</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'text': 'had cxr', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "had cxr",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['had cxr'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-13 22:52:00 and 2162-06-13 23:02:00):\n           had cxr\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 2.93844251614064}</t>
+          <t>{'text': 'encouraged to take sleeping aid to facilitate uninterupted sleep', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "None mentioned"\n        },\n        {\n            "attribute_name": "future plans",\n            "attribute_value": "facilitate uninterrupted sleep"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1948-07-09 04:52:00 and 1948-07-09 05:17:00:\n\'encouraged to take sleeping aid to facilitate uninterupted sleep\'\n', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'None mentioned'}, {'attribute_name': 'future plans', 'attribute_value': 'facilitate uninterrupted sleep'}]], 'actor': [], 'event_detection_time': 2.184399029938504}</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="b">
@@ -2825,32 +2936,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O28" t="b">
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['had cxr']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:had cxr']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2858,36 +2972,36 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>783</v>
+        <v>428</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16459_1477476_0047</t>
+          <t>19817_1522746_0019</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>p: monitor rhymth</t>
+          <t>plan: wake and eval neuro status and put back to sleep overnoc</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(Timestamp('2186-03-05 04:41:00'), Timestamp('2186-03-05 05:04:00'))</t>
+          <t>(Timestamp('1998-09-21 19:00:00'), Timestamp('1998-09-21 19:09:00'))</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'text': 'p: monitor rhymth', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "p: monitor rhymth",\n      "actor": "patient",\n      "object": "others",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['p: monitor rhymth'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2186-03-05 04:41:00 and 2186-03-05 05:04:00):\n           p: monitor rhymth\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.0263564728666097}</t>
+          <t>{'text': 'plan: wake and eval neuro status and put back to sleep overnoc', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "plan",\n            "attribute_value": "wake and eval neuro status and put back to sleep overnight"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1998-09-21 19:00:00 and 1998-09-21 19:09:00:\n\'plan: wake and eval neuro status and put back to sleep overnoc\'\n', 'case_attributes': [[{'attribute_name': 'plan', 'attribute_value': 'wake and eval neuro status and put back to sleep overnight'}]], 'actor': [], 'event_detection_time': 1.6813766090199351}</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
@@ -2911,32 +3025,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O29" t="b">
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['p: monitor rhymth']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:p: monitor rhymth']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2944,36 +3061,36 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>785</v>
+        <v>441</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15883_1468985_0039</t>
+          <t>3917_1313329_0006</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[**last name (namepattern4) **] score varying between [**2-16**]</t>
+          <t>patient may get sleeping pill but team has not ordered this yet</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(Timestamp('2179-07-08 15:13:00'), Timestamp('2179-07-08 15:40:00'))</t>
+          <t>(Timestamp('1931-08-26 19:29:00'), Timestamp('1931-08-26 19:43:00'))</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'text': '[**last name (namepattern4) **] score varying between [**2-16**]', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "[**last name (namepattern4) **] score varying between [**2-16**]",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['[**last name (namepattern4) **] score varying between [**2-16**]'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2179-07-08 15:13:00 and 2179-07-08 15:40:00):\n           [**last name (namepattern4) **] score varying between [**2-16**]\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.4240091929677874}</t>
+          <t>{'text': 'patient may get sleeping pill but team has not ordered this yet', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "consideration of sleeping pill",\n            "attribute_value": "not ordered"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-08-26 19:29:00 and 1931-08-26 19:43:00:\n\'patient may get sleeping pill but team has not ordered this yet\'\n', 'case_attributes': [[{'attribute_name': 'consideration of sleeping pill', 'attribute_value': 'not ordered'}]], 'actor': [], 'event_detection_time': 1.5349956259597093}</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
@@ -2997,32 +3114,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O30" t="b">
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['[**last name (namepattern4) **] score varying between [**2-16**]']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:[**last name (namepattern4) **] score varying between [**2-16**]']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3030,36 +3150,36 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>794</v>
+        <v>449</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4874_1325561_0018</t>
+          <t>1168_1277468_0012</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ls decreased rll, clear upper bilat with faint rales lll</t>
+          <t>asking for med. for sleep</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-19 18:21:00'), Timestamp('2162-06-19 18:36:00'))</t>
+          <t>(Timestamp('1950-07-20 02:49:00'), Timestamp('1950-07-20 03:56:00'))</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'text': 'ls decreased rll, clear upper bilat with faint rales lll', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "ls decreased rll, clear upper bilat with faint rales lll",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['ls decreased rll, clear upper bilat with faint rales lll'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-19 18:21:00 and 2162-06-19 18:36:00):\n           ls decreased rll, clear upper bilat with faint rales lll\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.3048814909998327}</t>
+          <t>{'text': 'asking for med. for sleep', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "None mentioned"\n        },\n        {\n            "attribute_name": "future plans",\n            "attribute_value": "None mentioned"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "asking for med. for sleep",\n            "actor": "patient",\n            "object": "medication",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['asking for med. for sleep'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1950-07-20 02:49:00 and 1950-07-20 03:56:00:\n\'asking for med. for sleep\'\n', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'None mentioned'}, {'attribute_name': 'future plans', 'attribute_value': 'None mentioned'}]], 'actor': ['patient'], 'event_detection_time': 4.42613312182948}</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="b">
@@ -3083,32 +3203,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O31" t="b">
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>['ls decreased rll, clear upper bilat with faint rales lll']</t>
-        </is>
-      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:ls decreased rll, clear upper bilat with faint rales lll']</t>
+          <t>['asking for med. for sleep']</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:asking for med. for sleep']</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3116,16 +3239,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>834</v>
+        <v>463</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23082_1563929_0035</t>
+          <t>12694_1428605_0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>see above</t>
+          <t>endo:  blood sugar of 158 last night covered with ssri, glucose</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -3136,12 +3259,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-04-04 06:13:00'), Timestamp('2151-04-04 06:29:00'))</t>
+          <t>(Timestamp('1948-01-11 07:32:00'), Timestamp('1948-01-11 08:00:00'))</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'text': 'see above', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{"case_attributes": [], "events": [], "order": []}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-04-04 06:13:00 and 2151-04-04 06:29:00):\n           see above\n        ', 'case_attributes': [[]], 'actor': [], 'event_detection_time': 0.5882101450115442}</t>
+          <t>{'text': 'endo:  blood sugar of 158 last night covered with ssri, glucose', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "blood sugar level",\n            "attribute_value": "158"\n        },\n        {\n            "attribute_name": "medication",\n            "attribute_value": "ssri, glucose"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1948-01-11 07:32:00 and 1948-01-11 08:00:00:\n\'endo:  blood sugar of 158 last night covered with ssri, glucose\'\n', 'case_attributes': [[{'attribute_name': 'blood sugar level', 'attribute_value': '158'}, {'attribute_name': 'medication', 'attribute_value': 'ssri, glucose'}]], 'actor': [], 'event_detection_time': 2.1525516430847347}</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3169,10 +3292,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O32" t="b">
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3195,6 +3316,11 @@
         </is>
       </c>
       <c r="T32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3202,16 +3328,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>842</v>
+        <v>492</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16459_1477458_0015</t>
+          <t>23632_1571291_0009</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>map initially 130- coming down to 81 with increase in tng drops and with patient</t>
+          <t>ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3222,12 +3348,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(Timestamp('2186-02-28 05:01:00'), Timestamp('2186-02-28 05:15:00'))</t>
+          <t>(Timestamp('1955-08-08 18:28:00'), Timestamp('1955-08-08 18:42:00'))</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'text': 'map initially 130- coming down to 81 with increase in tng drops and with patient', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "map initially 130- coming down to 81 with increase in tng drops and with patient",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['map initially 130- coming down to 81 with increase in tng drops and with patient'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2186-02-28 05:01:00 and 2186-02-28 05:15:00):\n           map initially 130- coming down to 81 with increase in tng drops and with patient\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.458625719882548}</t>
+          <t>{'text': 'ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "extubation planned",\n      "attribute_value": "later in the day"\n    },\n    {\n      "attribute_name": "etoh withdrawal anticipated",\n      "attribute_value": "yes"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1955-08-08 18:28:00 and 1955-08-08 18:42:00:\n\'ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal\'\n', 'case_attributes': [[{'attribute_name': 'extubation planned', 'attribute_value': 'later in the day'}, {'attribute_name': 'etoh withdrawal anticipated', 'attribute_value': 'yes'}]], 'actor': ['others'], 'event_detection_time': 5.127903321059421}</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3255,32 +3381,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O33" t="b">
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>['map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
-        </is>
-      </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:map initially 130- coming down to 81 with increase in tng drops and with patient']</t>
+          <t>['ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal']</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:ativan given x 2 d/t anticipated extubation later in the day (unsuccessful) and anticipated etoh withdrawal']</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3288,16 +3417,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>871</v>
+        <v>493</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25328_1592840_0029</t>
+          <t>12629_1427824_0003</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>tol sm amts clears</t>
+          <t>fentanyl increased to 75mcg/hr and ativan increased to 2mg/hr</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -3308,12 +3437,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(Timestamp('2183-03-13 18:05:00'), Timestamp('2183-03-13 18:31:00'))</t>
+          <t>(Timestamp('1951-04-06 18:53:00'), Timestamp('1951-04-06 19:15:00'))</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'text': 'tol sm amts clears', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "tol sm amts clears",\n      "actor": "patient",\n      "object": "unknown",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['tol sm amts clears'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2183-03-13 18:05:00 and 2183-03-13 18:31:00):\n           tol sm amts clears\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.0013470540288836}</t>
+          <t>{'text': 'fentanyl increased to 75mcg/hr and ativan increased to 2mg/hr', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "medication",\n            "attribute_value": "fentanyl, ativan"\n        },\n        {\n            "attribute_name": "dosage",\n            "attribute_value": "75mcg/hr fentanyl, 2mg/hr ativan"\n        }\n    ],\n    "events": [\n        \n    ],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1951-04-06 18:53:00 and 1951-04-06 19:15:00:\n\'fentanyl increased to 75mcg/hr and ativan increased to 2mg/hr\'\n', 'case_attributes': [[{'attribute_name': 'medication', 'attribute_value': 'fentanyl, ativan'}, {'attribute_name': 'dosage', 'attribute_value': '75mcg/hr fentanyl, 2mg/hr ativan'}]], 'actor': [], 'event_detection_time': 2.604072642046958}</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3341,32 +3470,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O34" t="b">
+        <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>['tol sm amts clears']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:tol sm amts clears']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3374,16 +3506,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>872</v>
+        <v>507</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4874_1325555_0010</t>
+          <t>1085_1276261_0038</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>cv: hr 100's, st, with freq pvc's and asymptomatic 6 beat run of vt x 1, on amio by mouth</t>
+          <t>**] need future brain mri per neuro-but better assessment to be made once patient off all sedation</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -3394,12 +3526,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-16 22:17:00'), Timestamp('2162-06-16 22:43:00'))</t>
+          <t>(Timestamp('1958-09-04 03:48:00'), Timestamp('1958-09-04 04:16:00'))</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'text': "cv: hr 100's, st, with freq pvc's and asymptomatic 6 beat run of vt x 1, on amio by mouth", 'event': ['Eating'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Eating",\n      "text_quote": "on amio by mouth",\n      "actor": "patient",\n      "object": "amio",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "amio",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Eating': {'Eating': {'food': 'amio', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[]], 'text_quotes': ['on amio by mouth'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-16 22:17:00 and 2162-06-16 22:43:00):\n           cv: hr 100\'s, st, with freq pvc\'s and asymptomatic 6 beat run of vt x 1, on amio by mouth\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.014306564815342}</t>
+          <t>{'text': '**] need future brain mri per neuro-but better assessment to be made once patient off all sedation', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"future plan for brain MRI"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1958-09-04 03:48:00 and 1958-09-04 04:16:00:\n\'**] need future brain mri per neuro-but better assessment to be made once patient off all sedation\'\n', 'case_attributes': [[{'attribute_name': 'future plan for brain MRI'}]], 'actor': [], 'event_detection_time': 1.0463423607870936}</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3427,49 +3559,52 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O35" t="b">
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['Eating']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[{'Eating': {'Eating': {'food': 'amio', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>['on amio by mouth']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>['e1=Eating|1:on amio by mouth']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>['[]']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>878</v>
+        <v>509</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4874_1325556_0029</t>
+          <t>32287_1671483_0040</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>wbc 10.9</t>
+          <t>poc: wean supplemental o2, aggressive pulm hygiene, [**last name (un) 354**] hemodynamics, neo drops off, however available if necessary, cont neuro assessments, ciwa scale, ?</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -3480,12 +3615,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(Timestamp('2162-06-17 05:21:00'), Timestamp('2162-06-17 05:55:00'))</t>
+          <t>(Timestamp('2006-06-14 06:25:00'), Timestamp('2006-06-14 07:08:00'))</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'text': 'wbc 10.9', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2162-06-17 05:21:00 and 2162-06-17 05:55:00):\n           wbc 10.9\n        ', 'case_attributes': [[]], 'actor': [], 'event_detection_time': 0.7303838469088078}</t>
+          <t>{'text': 'poc: wean supplemental o2, aggressive pulm hygiene, [**last name (un) 354**] hemodynamics, neo drops off, however available if necessary, cont neuro assessments, ciwa scale, ?', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"poc",\n            "attribute_value": "wean supplemental o2, aggressive pulm hygiene, [**last name (un) 354**] hemodynamics, neo drops off, however available if necessary, cont neuro assessments, ciwa scale"\n        }\n    ]  \n   \t}', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2006-06-14 06:25:00 and 2006-06-14 07:08:00:\n\'poc: wean supplemental o2, aggressive pulm hygiene, [**last name (un) 354**] hemodynamics, neo drops off, however available if necessary, cont neuro assessments, ciwa scale, ?\'\n', 'case_attributes': [[{'attribute_name': 'poc', 'attribute_value': 'wean supplemental o2, aggressive pulm hygiene, [**last name (un) 354**] hemodynamics, neo drops off, however available if necessary, cont neuro assessments, ciwa scale'}]], 'actor': [], 'event_detection_time': 2.4158229629974812}</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3513,10 +3648,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O36" t="b">
+        <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3540,22 +3673,27 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>['[]']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>879</v>
+        <v>510</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23082_1563931_0013</t>
+          <t>1283_1278756_0003</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pneumonia- unable to access cxr report</t>
+          <t>map&gt;60 all night</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -3566,12 +3704,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-04-05 05:15:00'), Timestamp('2151-04-05 05:32:00'))</t>
+          <t>(Timestamp('1948-07-28 06:56:00'), Timestamp('1948-07-28 07:06:00'))</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{'text': 'pneumonia- unable to access cxr report', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "pneumonia- unable to access cxr report",\n      "actor": "patient",\n      "object": "cxr report",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['pneumonia- unable to access cxr report'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-04-05 05:15:00 and 2151-04-05 05:32:00):\n           pneumonia- unable to access cxr report\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.200724142137915}</t>
+          <t>{'text': 'map&gt;60 all night', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "\'map&gt;60 all night\'",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "all night",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ["'map&gt;60 all night'"], 'event_time': ['all night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1948-07-28 06:56:00 and 1948-07-28 07:06:00:\n\'map&gt;60 all night\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.0445338420104235}</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3599,32 +3737,35 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O37" t="b">
+        <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>['pneumonia- unable to access cxr report']</t>
-        </is>
-      </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:pneumonia- unable to access cxr report']</t>
+          <t>["'map&gt;60 all night'"]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
+        <is>
+          <t>["e1=Unknown|0:'map&gt;60 all night'"]</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3632,16 +3773,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>891</v>
+        <v>514</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23082_1563954_0008</t>
+          <t>20240_1528831_0004</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -3652,12 +3793,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(Timestamp('2151-05-11 15:48:00'), Timestamp('2151-05-11 15:54:00'))</t>
+          <t>(Timestamp('1958-01-10 04:02:00'), Timestamp('1958-01-10 04:25:00'))</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{'text': 'gu', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2151-05-11 15:48:00 and 2151-05-11 15:54:00):\n           gu\n        ', 'case_attributes': [[]], 'actor': [], 'event_detection_time': 0.7308831759728491}</t>
+          <t>{'text': 'given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered', 'event': ['Pain', 'Unknown', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "back pain",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "agitation",\n            "attribute_value": "present"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "given morphine 2mg iv for back pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "given ativan 2mg iv for agitation",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]], 'text_quotes': ['given morphine 2mg iv for back pain', 'given ativan 2mg iv for agitation', 'given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1958-01-10 04:02:00 and 1958-01-10 04:25:00:\n\'given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered\'\n', 'case_attributes': [[{'attribute_name': 'back pain', 'attribute_value': 'present'}, {'attribute_name': 'agitation', 'attribute_value': 'present'}]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 14.394721288001165}</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3685,10 +3826,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O38" t="b">
+        <v>1</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3697,37 +3836,42 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Pain', 'Unknown', 'Pain']</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['given morphine 2mg iv for back pain', 'given ativan 2mg iv for agitation', 'given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered']</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[[]]</t>
+          <t>['e1=Pain|1:given morphine 2mg iv for back pain', 'e2=Unknown|0:given ativan 2mg iv for agitation', 'e3=Pain|1:given morphine 2mg iv for back pain and ativan 2mg iv for agitation x1cvs hr nsr to st 98-110 without ectopy bp labile 110/-177/96 antihypertensive given as ordered']</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>897</v>
+        <v>522</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14995_1457379_0004</t>
+          <t>9160_1383223_0001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>milrinone at .375mcgs</t>
+          <t>neuro: alert, nodding head and mouthing words to questions</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -3738,12 +3882,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(Timestamp('2102-09-25 17:12:00'), Timestamp('2102-09-25 17:26:00'))</t>
+          <t>(Timestamp('1998-04-11 18:02:00'), Timestamp('1998-04-11 18:18:00'))</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'text': 'milrinone at .375mcgs', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "milrinone at .375mcgs",\n      "actor": "patient",\n      "object": "others",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['milrinone at .375mcgs'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2102-09-25 17:12:00 and 2102-09-25 17:26:00):\n           milrinone at .375mcgs\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.0849758158437908}</t>
+          <t>{'text': 'neuro: alert, nodding head and mouthing words to questions', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "alert, nodding head and mouthing words to questions",\n            "actor": "patient",\n            "object": "None",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['alert, nodding head and mouthing words to questions'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1998-04-11 18:02:00 and 1998-04-11 18:18:00:\n\'neuro: alert, nodding head and mouthing words to questions\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.1969150570221245}</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3771,34 +3915,3334 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O39" t="b">
+        <v>1</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>['milrinone at .375mcgs']</t>
-        </is>
-      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>['e1=Unknown|1:milrinone at .375mcgs']</t>
+          <t>['alert, nodding head and mouthing words to questions']</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
+          <t>['e1=Unknown|1:alert, nodding head and mouthing words to questions']</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12694_1428619_0042</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(Timestamp('1948-01-15 14:12:00'), Timestamp('1948-01-15 14:28:00'))</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{'text': 'hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "long term plan",\n      "attribute_value": "psych consult"\n    },\n    {\n      "attribute_name": "reasons for psych consult",\n      "attribute_value": "depression and etoh abuse"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1948-01-15 14:12:00 and 1948-01-15 14:28:00:\n\'hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse\'\n', 'case_attributes': [[{'attribute_name': 'long term plan', 'attribute_value': 'psych consult'}, {'attribute_name': 'reasons for psych consult', 'attribute_value': 'depression and etoh abuse'}]], 'actor': [], 'event_detection_time': 2.3364858869463205}</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>30277_1652344_0001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>neuro: aao x 3</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(Timestamp('1985-11-15 08:05:00'), Timestamp('1985-11-15 08:13:00'))</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: aao x 3', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"alertness",\n            "attribute_value": "aa × 3"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1985-11-15 08:05:00 and 1985-11-15 08:13:00:\n\'neuro: aao x 3\'\n', 'case_attributes': [[{'attribute_name': 'alertness', 'attribute_value': 'aa × 3'}]], 'actor': [], 'event_detection_time': 1.2914336090907454}</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3910_1313213_0002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>neuro: axox3, mae, follows commands</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(Timestamp('1932-01-12 05:12:00'), Timestamp('1932-01-12 05:33:00'))</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: axox3, mae, follows commands', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"patient\'s neurological status",\n            "attribute_value": "axox3, mae, follows commands"\n        }\n    ]  \n   \t}', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1932-01-12 05:12:00 and 1932-01-12 05:33:00:\n\'neuro: axox3, mae, follows commands\'\n', 'case_attributes': [[{'attribute_name': "patient's neurological status", 'attribute_value': 'axox3, mae, follows commands'}]], 'actor': [], 'event_detection_time': 1.5174337199423462}</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23318_1566997_0017</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>uses good technique with her inhalers.bipap last night to rest and she will use bipap on the floor at night when she is transferred</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(Timestamp('1977-01-15 12:43:00'), Timestamp('1977-01-15 13:06:00'))</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{'text': 'uses good technique with her inhalers.bipap last night to rest and she will use bipap on the floor at night when she is transferred', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "bipap usage",\n            "attribute_value": "will use bipap on the floor at night when transferred"\n        },\n        {\n            "attribute_name": "inhaler technique",\n            "attribute_value": "uses good technique with her inhalers"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "bipap last night to rest",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "last night",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['bipap last night to rest'], 'event_time': ['last night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1977-01-15 12:43:00 and 1977-01-15 13:06:00:\n\'uses good technique with her inhalers.bipap last night to rest and she will use bipap on the floor at night when she is transferred\'\n', 'case_attributes': [[{'attribute_name': 'bipap usage', 'attribute_value': 'will use bipap on the floor at night when transferred'}, {'attribute_name': 'inhaler technique', 'attribute_value': 'uses good technique with her inhalers'}]], 'actor': ['patient'], 'event_detection_time': 5.017323759151623}</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Rest seems more like sleep.</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>['bipap last night to rest']</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:bipap last night to rest']</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25374_1593408_0045</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[**name8 (md) **] @ bedside last night, and mom called this am, will be in later this am to visit</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(Timestamp('2014-01-18 07:12:00'), Timestamp('2014-01-18 07:23:00'))</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{'text': '[**name8 (md) **] @ bedside last night, and mom called this am, will be in later this am to visit', 'event': ['Family', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "patient\'s mother plans to visit",\n      "attribute_value": "later this morning"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Family",\n      "text_quote": "[**name8 (md) **] @ bedside last night, and mom called this am",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "last night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "mother"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "[**name8 (md) **] @ bedside last night, and mom called this am",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "this morning",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "mother"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'mother'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'mother'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['[**name8 (md) **] @ bedside last night, and mom called this am', '[**name8 (md) **] @ bedside last night, and mom called this am'], 'event_time': ['last night', 'this morning'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2014-01-18 07:12:00 and 2014-01-18 07:23:00:\n\'[**name8 (md) **] @ bedside last night, and mom called this am, will be in later this am to visit\'\n', 'case_attributes': [[{'attribute_name': "patient's mother plans to visit", 'attribute_value': 'later this morning'}]], 'actor': ['family member', 'family member'], 'event_detection_time': 9.37384540704079}</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>['Family', 'Family']</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'mother'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'mother'}}}]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>['[**name8 (md) **] @ bedside last night, and mom called this am', '[**name8 (md) **] @ bedside last night, and mom called this am']</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>['e1=Family|1:[**name8 (md) **] @ bedside last night, and mom called this am', 'e2=Family|1:[**name8 (md) **] @ bedside last night, and mom called this am']</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>15295_1461121_0000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>neuro: a&amp;o x3, forgetful of place occasionally, mae, denies pain or discomfort, oob x2 most of shift, went from 2 person max assist transfer this am to 1 person moderate assist bed to chair</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(Timestamp('1937-03-29 18:32:00'), Timestamp('1937-03-29 18:38:00'))</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: a&amp;o x3, forgetful of place occasionally, mae, denies pain or discomfort, oob x2 most of shift, went from 2 person max assist transfer this am to 1 person moderate assist bed to chair', 'event': ['Excretion', 'Pain', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient\'s mental status",\n            "attribute_value": "a&amp;o x3, forgetful of place occasionally"\n        },\n        {\n            "attribute_name": "patient\'s pain status",\n            "attribute_value": "denies pain or discomfort"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "oob x2 most of shift",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "most of shift",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "bowel movement",\n                    "frequency": "2x"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "denies pain or discomfort",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "went from 2 person max assist transfer this am to 1 person moderate assist bed to chair",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'bowel movement', 'frequency': '2x'}}}, {'Pain': {'Pain': {'severity': 'none'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['oob x2 most of shift', 'denies pain or discomfort', 'went from 2 person max assist transfer this am to 1 person moderate assist bed to chair'], 'event_time': ['most of shift', 'Unknown', 'this am'], 'negation': [False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1937-03-29 18:32:00 and 1937-03-29 18:38:00:\n\'neuro: a&amp;o x3, forgetful of place occasionally, mae, denies pain or discomfort, oob x2 most of shift, went from 2 person max assist transfer this am to 1 person moderate assist bed to chair\'\n', 'case_attributes': [[{'attribute_name': "patient's mental status", 'attribute_value': 'a&amp;o x3, forgetful of place occasionally'}, {'attribute_name': "patient's pain status", 'attribute_value': 'denies pain or discomfort'}]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 13.277103960048407}</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>['Excretion', 'Pain', 'Unknown']</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[{'Excretion': {'Excretion': {'type': 'bowel movement', 'frequency': '2x'}}}, {'Pain': {'Pain': {'severity': 'none'}}}, {'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>['oob x2 most of shift', 'denies pain or discomfort', 'went from 2 person max assist transfer this am to 1 person moderate assist bed to chair']</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>['e1=Excretion|1:oob x2 most of shift', 'e2=Pain|1:denies pain or discomfort', 'e3=Unknown|1:went from 2 person max assist transfer this am to 1 person moderate assist bed to chair']</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1272_1278715_0039</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(Timestamp('1930-02-20 04:45:00'), Timestamp('1930-02-20 05:06:00'))</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'text': 'more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "refractory hypertension",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "continued fevers",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "high wbc",\n            "attribute_value": "present"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc",\n            "actor": "patient",\n            "object": "vent",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1930-02-20 04:45:00 and 1930-02-20 05:06:00:\n\'more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc\'\n', 'case_attributes': [[{'attribute_name': 'refractory hypertension', 'attribute_value': 'present'}, {'attribute_name': 'continued fevers', 'attribute_value': 'present'}, {'attribute_name': 'high wbc', 'attribute_value': 'present'}]], 'actor': ['patient'], 'event_detection_time': 5.506599727086723}</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>['more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc']</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:more awake, weaned from vent but with refractory hypertension and continued fevers and high wbc']</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>29005_1638853_0010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>continue q1hr neuro checks</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(Timestamp('1945-02-10 18:25:00'), Timestamp('1945-02-10 19:01:00'))</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{'text': 'continue q1hr neuro checks', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "continue q1hr neuro checks",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['continue q1hr neuro checks'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1945-02-10 18:25:00 and 1945-02-10 19:01:00:\n\'continue q1hr neuro checks\'\n', 'case_attributes': [[]], 'actor': ['others'], 'event_detection_time': 3.0542820640839636}</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>['continue q1hr neuro checks']</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:continue q1hr neuro checks']</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16714_1480804_0034</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>atc ativan dosing for mild dtz sx</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(Timestamp('1958-01-10 04:45:00'), Timestamp('1958-01-10 05:00:00'))</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{'text': 'atc ativan dosing for mild dtz sx', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "dtz sx",\n            "attribute_value": "mild"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1958-01-10 04:45:00 and 1958-01-10 05:00:00:\n\'atc ativan dosing for mild dtz sx\'\n', 'case_attributes': [[{'attribute_name': 'dtz sx', 'attribute_value': 'mild'}]], 'actor': [], 'event_detection_time': 1.4767180420458317}</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21420_1543433_0001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>neuro:  chinese speaking only</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(Timestamp('2000-12-30 15:09:00'), Timestamp('2000-12-30 15:18:00'))</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro:  chinese speaking only', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "language",\n            "attribute_value": "Chinese"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2000-12-30 15:09:00 and 2000-12-30 15:18:00:\n\'neuro:  chinese speaking only\'\n', 'case_attributes': [[{'attribute_name': 'language', 'attribute_value': 'Chinese'}]], 'actor': [], 'event_detection_time': 1.3926193579100072}</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3279_1304318_0000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>neuro: patient sedated on propofol overnight</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(Timestamp('2019-11-05 05:46:00'), Timestamp('2019-11-05 06:00:00'))</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: patient sedated on propofol overnight', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "sedation",\n      "attribute_value": "propofol"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2019-11-05 05:46:00 and 2019-11-05 06:00:00:\n\'neuro: patient sedated on propofol overnight\'\n', 'case_attributes': [[{'attribute_name': 'sedation', 'attribute_value': 'propofol'}]], 'actor': [], 'event_detection_time': 1.4778165258467197}</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16672_1480320_0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>resp care, patient remains intubated on psv. patient had stable night, plan to initiate sbt adn extubate later this morning</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(Timestamp('2019-11-25 04:28:00'), Timestamp('2019-11-25 04:29:00'))</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care, patient remains intubated on psv. patient had stable night, plan to initiate sbt adn extubate later this morning', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "plan",\n            "attribute_value": "initiate sbt and extubate later this morning"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2019-11-25 04:28:00 and 2019-11-25 04:29:00:\n\'resp care, patient remains intubated on psv. patient had stable night, plan to initiate sbt adn extubate later this morning\'\n', 'case_attributes': [[{'attribute_name': 'plan', 'attribute_value': 'initiate sbt and extubate later this morning'}]], 'actor': [], 'event_detection_time': 1.688775982009247}</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6005_1341308_0001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>neuro: alert,</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(Timestamp('1968-04-16 06:34:00'), Timestamp('1968-04-16 06:54:00'))</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: alert,', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "alert",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['alert'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1968-04-16 06:34:00 and 1968-04-16 06:54:00:\n\'neuro: alert,\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 2.900602314155549}</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>['alert']</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:alert']</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>27910_1627298_0032</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>sedatives pro re nata for comfort, rest at night</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(Timestamp('1945-09-18 20:10:00'), Timestamp('1945-09-18 20:29:00'))</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>{'text': 'sedatives pro re nata for comfort, rest at night', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "sedatives prescribed",\n            "attribute_value": "pro re nata for comfort"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1945-09-18 20:10:00 and 1945-09-18 20:29:00:\n\'sedatives pro re nata for comfort, rest at night\'\n', 'case_attributes': [[{'attribute_name': 'sedatives prescribed', 'attribute_value': 'pro re nata for comfort'}]], 'actor': [], 'event_detection_time': 1.6018860421609133}</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20376_1530699_0016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>neuro: lethargic, will answer questions, turning self in bed</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(Timestamp('1944-08-14 05:46:00'), Timestamp('1944-08-14 05:57:00'))</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: lethargic, will answer questions, turning self in bed', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "neuro: lethargic, will answer questions, turning self in bed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['neuro: lethargic, will answer questions, turning self in bed'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1944-08-14 05:46:00 and 1944-08-14 05:57:00:\n\'neuro: lethargic, will answer questions, turning self in bed\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.3236881499178708}</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>['neuro: lethargic, will answer questions, turning self in bed']</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:neuro: lethargic, will answer questions, turning self in bed']</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>29003_1638827_0001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>neuro: patient sedated on fentanyl 100mcg/hr and versed 4mg/hr,patient required multiple boluses of sedation for suction and reposition</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>(Timestamp('1978-03-10 02:41:00'), Timestamp('1978-03-10 02:52:00'))</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: patient sedated on fentanyl 100mcg/hr and versed 4mg/hr,patient required multiple boluses of sedation for suction and reposition', 'event': ['Unknown', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "sedation medication",\n            "attribute_value": "fentanyl 100mcg/hr and versed 4mg/hr"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient sedated on fentanyl 100mcg/hr and versed 4mg/hr",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "patient required multiple boluses of sedation for suction and reposition",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient sedated on fentanyl 100mcg/hr and versed 4mg/hr', 'patient required multiple boluses of sedation for suction and reposition'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1978-03-10 02:41:00 and 1978-03-10 02:52:00:\n\'neuro: patient sedated on fentanyl 100mcg/hr and versed 4mg/hr,patient required multiple boluses of sedation for suction and reposition\'\n', 'case_attributes': [[{'attribute_name': 'sedation medication', 'attribute_value': 'fentanyl 100mcg/hr and versed 4mg/hr'}]], 'actor': ['others', 'others'], 'event_detection_time': 8.023811219027266}</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>['Unknown', 'Unknown']</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>['patient sedated on fentanyl 100mcg/hr and versed 4mg/hr', 'patient required multiple boluses of sedation for suction and reposition']</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:patient sedated on fentanyl 100mcg/hr and versed 4mg/hr', 'e2=Unknown|1:patient required multiple boluses of sedation for suction and reposition']</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>27537_1622475_0004</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(Timestamp('1998-11-21 05:03:00'), Timestamp('1998-11-21 05:22:00'))</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{'text': 'med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1998-11-21 05:03:00 and 1998-11-21 05:22:00:\n\'med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.681155881145969}</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>['med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit']</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:med with ativan with min response, then haldol, total 5 mg iv, still extremely agitated and determined to exit']</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>351_1265145_0000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>pmicu nursing progress notepatient on and off bipap during the night</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(Timestamp('2000-10-13 06:16:00'), Timestamp('2000-10-13 06:45:00'))</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{'text': 'pmicu nursing progress notepatient on and off bipap during the night', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown", \n            "text_quote": "patient on and off bipap during the night",\n            "actor": "patient",\n            "object": "bipap",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient on and off bipap during the night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2000-10-13 06:16:00 and 2000-10-13 06:45:00:\n\'pmicu nursing progress notepatient on and off bipap during the night\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.228988289134577}</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>['patient on and off bipap during the night']</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:patient on and off bipap during the night']</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>11032_1407155_0026</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>no seizures or other neuro s/s noted</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(Timestamp('2015-07-28 06:07:00'), Timestamp('2015-07-28 06:42:00'))</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{'text': 'no seizures or other neuro s/s noted', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "no seizures or other neuro s/s noted",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['no seizures or other neuro s/s noted'], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2015-07-28 06:07:00 and 2015-07-28 06:42:00:\n\'no seizures or other neuro s/s noted\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.109565480146557}</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>['no seizures or other neuro s/s noted']</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:no seizures or other neuro s/s noted']</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>15455_1462840_0022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>extubate today, continue to monitor neuro status ( outside hospital thought patient had a an anoxic brain injury) but patient</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(Timestamp('1974-07-22 05:19:00'), Timestamp('1974-07-22 05:37:00'))</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{'text': 'extubate today, continue to monitor neuro status ( outside hospital thought patient had a an anoxic brain injury) but patient', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name": "outside hospital diagnosis",\n            "attribute_value": "anoxic brain injury"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1974-07-22 05:19:00 and 1974-07-22 05:37:00:\n\'extubate today, continue to monitor neuro status ( outside hospital thought patient had a an anoxic brain injury) but patient\'\n', 'case_attributes': [[{'attribute_name': 'outside hospital diagnosis', 'attribute_value': 'anoxic brain injury'}]], 'actor': [], 'event_detection_time': 1.3354451910126954}</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>15883_1468971_0014</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[**last name (stitle) **]</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(Timestamp('2008-09-29 05:37:00'), Timestamp('2008-09-29 06:22:00'))</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{'text': '[**last name (stitle) **]', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"last_name",\n            "attribute_value": "[**stitle**]"\n        }\n    ],  \n    "events": [ \n        {\n            "event_id": "e1", \n            "event_type": "Unknown", \n            "text_quote": "[**last name (stitle) **]",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [ \n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "None"\n        } \n    ]\n}', 'attributes': [{'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'None'}]], 'text_quotes': ['[**last name (stitle) **]'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-09-29 05:37:00 and 2008-09-29 06:22:00:\n\'[**last name (stitle) **]\'\n', 'case_attributes': [[{'attribute_name': 'last_name', 'attribute_value': '[**stitle**]'}]], 'actor': ['patient'], 'event_detection_time': 5.087643529986963}</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>['[**last name (stitle) **]']</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:[**last name (stitle) **]']</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'None'}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>23082_1563954_0006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>resp</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(Timestamp('1980-08-05 15:48:00'), Timestamp('1980-08-05 15:54:00'))</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>{'text': 'resp', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "\'resp\'",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ["'resp'"], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-08-05 15:48:00 and 1980-08-05 15:54:00:\n\'resp\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 2.8981620860286057}</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>["'resp'"]</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>["e1=Unknown|0:'resp'"]</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>15883_1468985_0062</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>perimeter is marked</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(Timestamp('2008-10-02 15:13:00'), Timestamp('2008-10-02 15:40:00'))</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{'text': 'perimeter is marked', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "perimeter is marked",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['perimeter is marked'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-10-02 15:13:00 and 2008-10-02 15:40:00:\n\'perimeter is marked\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.003657713998109}</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>['perimeter is marked']</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:perimeter is marked']</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>15883_1468978_0005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>plan to wean on cpap/ps this am</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(Timestamp('2008-10-01 04:32:00'), Timestamp('2008-10-01 04:35:00'))</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>{'text': 'plan to wean on cpap/ps this am', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name": "plan",\n            "attribute_value": "wean on cpap/ps"\n        }\n    ],  \n    "events": [ \n    ],\n    "order": [ \n    ]\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-10-01 04:32:00 and 2008-10-01 04:35:00:\n\'plan to wean on cpap/ps this am\'\n', 'case_attributes': [[{'attribute_name': 'plan', 'attribute_value': 'wean on cpap/ps'}]], 'actor': [], 'event_detection_time': 1.7975304739084095}</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>25328_1592841_0016</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>on low dose neo for bp</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(Timestamp('2012-06-08 04:18:00'), Timestamp('2012-06-08 04:35:00'))</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>{'text': 'on low dose neo for bp', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"medication",\n            "attribute_value": "low dose neo for bp"\n        }\n    ]  \n   \t}', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2012-06-08 04:18:00 and 2012-06-08 04:35:00:\n\'on low dose neo for bp\'\n', 'case_attributes': [[{'attribute_name': 'medication', 'attribute_value': 'low dose neo for bp'}]], 'actor': [], 'event_detection_time': 1.3399666079785675}</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>23082_1563931_0029</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[**4-3**] nites</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>(Timestamp('1980-06-30 05:15:00'), Timestamp('1980-06-30 05:32:00'))</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>{'text': '[**4-3**] nites', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"Patient\'s sleep pattern at home",\n            "attribute_value": "4 nights"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-06-30 05:15:00 and 1980-06-30 05:32:00:\n\'[**4-3**] nites\'\n', 'case_attributes': [[{'attribute_name': "Patient's sleep pattern at home", 'attribute_value': '4 nights'}]], 'actor': [], 'event_detection_time': 1.325542019912973}</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23082_1563923_0027</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>s-lethargic and sedated</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>(Timestamp('1980-06-27 07:08:00'), Timestamp('1980-06-27 08:13:00'))</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>{'text': 's-lethargic and sedated', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "\'s-lethargic and sedated\'",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ["'s-lethargic and sedated'"], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-06-27 07:08:00 and 1980-06-27 08:13:00:\n\'s-lethargic and sedated\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.1091274418868124}</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>["'s-lethargic and sedated'"]</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>["e1=Unknown|0:'s-lethargic and sedated'"]</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>22673_1558374_0004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>hr 84-90 sr. rare pvc noted</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>(Timestamp('1996-08-14 05:03:00'), Timestamp('1996-08-14 05:24:00'))</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>{'text': 'hr 84-90 sr. rare pvc noted', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "hr 84-90 sr. rare pvc noted",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['hr 84-90 sr. rare pvc noted'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1996-08-14 05:03:00 and 1996-08-14 05:24:00:\n\'hr 84-90 sr. rare pvc noted\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.199551375117153}</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>['hr 84-90 sr. rare pvc noted']</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:hr 84-90 sr. rare pvc noted']</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16459_1477466_0015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>gu:  foley p/s. auop</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>(Timestamp('2015-05-28 07:29:00'), Timestamp('2015-05-28 07:43:00'))</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>{'text': 'gu:  foley p/s. auop', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"foley catheter",\n            "attribute_value": "present"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2015-05-28 07:29:00 and 2015-05-28 07:43:00:\n\'gu:  foley p/s. auop\'\n', 'case_attributes': [[{'attribute_name': 'foley catheter', 'attribute_value': 'present'}]], 'actor': [], 'event_detection_time': 1.2345536700449884}</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>32291_1671530_0021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>monitor morning labs</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(Timestamp('2000-04-02 02:12:00'), Timestamp('2000-04-02 02:27:00'))</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>{'text': 'monitor morning labs', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "monitor morning labs",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "morning",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['monitor morning labs'], 'event_time': ['morning'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2000-04-02 02:12:00 and 2000-04-02 02:27:00:\n\'monitor morning labs\'\n', 'case_attributes': [[]], 'actor': ['others'], 'event_detection_time': 2.988865566905588}</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>['Unknown']</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>[{'Unknown': {}}]</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>['monitor morning labs']</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:monitor morning labs']</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23082_1563929_0035</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>see above</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(Timestamp('1980-06-29 06:13:00'), Timestamp('1980-06-29 06:29:00'))</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>{'text': 'see above', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"written_time",\n            "attribute_value": "between 1980-06-29 06:13:00 and 1980-06-29 06:29:00"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-06-29 06:13:00 and 1980-06-29 06:29:00:\n\'see above\'\n', 'case_attributes': [[{'attribute_name': 'written_time', 'attribute_value': 'between 1980-06-29 06:13:00 and 1980-06-29 06:29:00'}]], 'actor': [], 'event_detection_time': 1.9630077651236206}</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>15883_1468999_0011</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>remains on by mouth amiodarone, mexiletine, lopressor as ordered</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>(Timestamp('2008-10-06 03:56:00'), Timestamp('2008-10-06 04:20:00'))</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>{'text': 'remains on by mouth amiodarone, mexiletine, lopressor as ordered', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"medications",\n            "attribute_value": "amiodarone, mexiletine, lopressor"\n        }\n    ]  \n   \t}', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-10-06 03:56:00 and 2008-10-06 04:20:00:\n\'remains on by mouth amiodarone, mexiletine, lopressor as ordered\'\n', 'case_attributes': [[{'attribute_name': 'medications', 'attribute_value': 'amiodarone, mexiletine, lopressor'}]], 'actor': [], 'event_detection_time': 1.5871291048824787}</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O71" t="b">
+        <v>1</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>14995_1457371_0033</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>?decreasing dose</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>(Timestamp('1931-12-17 17:45:00'), Timestamp('1931-12-17 18:24:00'))</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>{'text': '?decreasing dose', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"medication",\n            "attribute_value": "decreasing dose"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1931-12-17 17:45:00 and 1931-12-17 18:24:00:\n\'?decreasing dose\'\n', 'case_attributes': [[{'attribute_name': 'medication', 'attribute_value': 'decreasing dose'}]], 'actor': [], 'event_detection_time': 1.2346713291481137}</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O72" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>23082_1563940_0033</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>a: af , decreased ci, hct 29</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>(Timestamp('1980-08-01 23:56:00'), Timestamp('1980-08-02 00:14:00'))</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>{'text': 'a: af , decreased ci, hct 29', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "hematocrit",\n            "attribute_value": "hct 29"\n        },\n        {\n            "attribute_name": "cardiac index",\n            "attribute_value": "decreased ci"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-08-01 23:56:00 and 1980-08-02 00:14:00:\n\'a: af , decreased ci, hct 29\'\n', 'case_attributes': [[{'attribute_name': 'hematocrit', 'attribute_value': 'hct 29'}, {'attribute_name': 'cardiac index', 'attribute_value': 'decreased ci'}]], 'actor': [], 'event_detection_time': 2.285569328116253}</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O73" t="b">
+        <v>1</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>15883_1468977_0001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ep team eval patient today and recomended cardiac cath tomorrow to eval vessels, followed by surgery for cabg if needed, and epicardial open ablation of scar tissue in or, possibly on thursday</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>(Timestamp('2008-09-30 17:28:00'), Timestamp('2008-09-30 18:49:00'))</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>{'text': 'ep team eval patient today and recomended cardiac cath tomorrow to eval vessels, followed by surgery for cabg if needed, and epicardial open ablation of scar tissue in or, possibly on thursday', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name": "cardiac cath recommendation",\n            "attribute_value": "tomorrow"\n        },\n        {\n            "attribute_name": "surgery for cabg recommendation",\n            "attribute_value": "if needed after cardiac cath"\n        },\n        {\n            "attribute_name": "epicardial open ablation of scar tissue recommendation",\n            "attribute_value": "possibly on thursday"\n        }\n    ]  \n    }', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 2008-09-30 17:28:00 and 2008-09-30 18:49:00:\n\'ep team eval patient today and recomended cardiac cath tomorrow to eval vessels, followed by surgery for cabg if needed, and epicardial open ablation of scar tissue in or, possibly on thursday\'\n', 'case_attributes': [[{'attribute_name': 'cardiac cath recommendation', 'attribute_value': 'tomorrow'}, {'attribute_name': 'surgery for cabg recommendation', 'attribute_value': 'if needed after cardiac cath'}, {'attribute_name': 'epicardial open ablation of scar tissue recommendation', 'attribute_value': 'possibly on thursday'}]], 'actor': [], 'event_detection_time': 3.139450381975621}</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O74" t="b">
+        <v>1</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>['[]']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4874_1325555_0010</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cv: hr 100's, st, with freq pvc's and asymptomatic 6 beat run of vt x 1, on amio by mouth</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>(Timestamp('1991-09-11 22:17:00'), Timestamp('1991-09-11 22:43:00'))</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>{'text': "cv: hr 100's, st, with freq pvc's and asymptomatic 6 beat run of vt x 1, on amio by mouth", 'event': ['Eating'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "medication",\n            "attribute_value": "amiodarone"\n        },\n        {\n            "attribute_name": "medical_history",\n            "attribute_value": "frequent PVCs and asymptomatic 6 beat run of VT x 1"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "on amio by mouth",\n            "actor": "patient",\n            "object": "amiodarone",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "amiodarone",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Eating': {'Eating': {'food': 'amiodarone', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[]], 'text_quotes': ['on amio by mouth'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1991-09-11 22:17:00 and 1991-09-11 22:43:00:\n\'cv: hr 100\'s, st, with freq pvc\'s and asymptomatic 6 beat run of vt x 1, on amio by mouth\'\n', 'case_attributes': [[{'attribute_name': 'medication', 'attribute_value': 'amiodarone'}, {'attribute_name': 'medical_history', 'attribute_value': 'frequent PVCs and asymptomatic 6 beat run of VT x 1'}]], 'actor': ['patient'], 'event_detection_time': 5.9968020708765835}</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O75" t="b">
+        <v>1</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>['Eating']</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>[{'Eating': {'Eating': {'food': 'amiodarone', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>['on amio by mouth']</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>['e1=Eating|1:on amio by mouth']</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>[[]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23082_1563954_0008</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>gu</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>(Timestamp('1980-08-05 15:48:00'), Timestamp('1980-08-05 15:54:00'))</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>{'text': 'gu', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{   \n    "case_attributes":[ \n        {\n            "attribute_name":"Unknown"\n        }\n    ]  \n   \t}', 'attributes': [], 'orders': ['[]'], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1980-08-05 15:48:00 and 1980-08-05 15:54:00:\n\'gu\'\n', 'case_attributes': [[{'attribute_name': 'Unknown'}]], 'actor': [], 'event_detection_time': 0.9829983448144048}</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>['[]']</t>
         </is>
       </c>
     </row>
